--- a/LuanTaiBach.xlsx
+++ b/LuanTaiBach.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F69C01-95F4-48D4-831D-210B21466CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA626B4-9247-4474-8938-8574B3DA7AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$1755</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$1738</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="1916">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -4275,57 +4275,9 @@
     <t>Liêm Trinh và Phá Quân đồng cung tại Dậu</t>
   </si>
   <si>
-    <t>Thái Âm và Tham Lang đồng cung tại Tý</t>
-  </si>
-  <si>
-    <t>Thái Âm và Tham Lang đồng cung tại Sửu</t>
-  </si>
-  <si>
-    <t>Thái Âm và Tham Lang đồng cung tại Dần</t>
-  </si>
-  <si>
-    <t>Thái Âm và Tham Lang đồng cung tại Mão</t>
-  </si>
-  <si>
-    <t>Thái Âm và Tham Lang đồng cung tại Thìn</t>
-  </si>
-  <si>
-    <t>Mệnh Vô Chính Diệu</t>
-  </si>
-  <si>
-    <t>Phụ Mẫu Vô Chính Diệu</t>
-  </si>
-  <si>
-    <t>Phúc Đức Vô Chính Diệu</t>
-  </si>
-  <si>
-    <t>Điền Trạch Vô Chính Diệu</t>
-  </si>
-  <si>
-    <t>Quan Lộc Vô Chính Diệu</t>
-  </si>
-  <si>
-    <t>Nô Bộc Vô Chính Diệu</t>
-  </si>
-  <si>
-    <t>Thiên Di Vô Chính Diệu</t>
-  </si>
-  <si>
-    <t>Tật Ách Vô Chính Diệu</t>
-  </si>
-  <si>
     <t>Tài Bạch Vô Chính Diệu</t>
   </si>
   <si>
-    <t>Tử Tức Vô Chính Diệu</t>
-  </si>
-  <si>
-    <t>Phu Thê Vô Chính Diệu</t>
-  </si>
-  <si>
-    <t>Huynh Đệ Vô Chính Diệu</t>
-  </si>
-  <si>
     <t>Đại Hao tọa thủ tại Tài Bạch</t>
   </si>
   <si>
@@ -4351,9 +4303,6 @@
   </si>
   <si>
     <t>Thai Phụ tọa thủ tại Tài Bạch</t>
-  </si>
-  <si>
-    <t>Kình Dương, Đà La đồng cung tại Tài Bạch</t>
   </si>
   <si>
     <t>Địa Không, Địa Kiếp đồng cung tại Tài Bạch</t>
@@ -6169,10 +6118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:I1755"/>
+  <dimension ref="A1:I1738"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1622" workbookViewId="0">
-      <selection activeCell="C1633" sqref="C1633"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6189,7 +6138,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1854</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -6197,7 +6146,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1855</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -6205,7 +6154,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1856</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6213,7 +6162,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1857</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -6221,7 +6170,7 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1858</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6229,7 +6178,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1859</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6253,10 +6202,10 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6368,7 +6317,7 @@
         <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6376,7 +6325,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6400,7 +6349,7 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6408,10 +6357,10 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6419,10 +6368,10 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6478,10 +6427,10 @@
         <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6505,10 +6454,10 @@
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6532,10 +6481,10 @@
         <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6559,10 +6508,10 @@
         <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6586,10 +6535,10 @@
         <v>85</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6613,10 +6562,10 @@
         <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6640,10 +6589,10 @@
         <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1753</v>
+        <v>1736</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6667,10 +6616,10 @@
         <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6678,7 +6627,7 @@
         <v>95</v>
       </c>
       <c r="B58" t="s">
-        <v>1754</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6702,7 +6651,7 @@
         <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -6710,7 +6659,7 @@
         <v>99</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -6718,7 +6667,7 @@
         <v>100</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1760</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6734,7 +6683,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -6742,7 +6691,7 @@
         <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -7502,7 +7451,7 @@
         <v>198</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -8494,7 +8443,7 @@
         <v>322</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1790</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8510,7 +8459,7 @@
         <v>324</v>
       </c>
       <c r="B287" t="s">
-        <v>1930</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -8518,7 +8467,7 @@
         <v>325</v>
       </c>
       <c r="B288" t="s">
-        <v>1757</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -8534,7 +8483,7 @@
         <v>327</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -8550,7 +8499,7 @@
         <v>328</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8558,7 +8507,7 @@
         <v>329</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8582,7 +8531,7 @@
         <v>332</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8590,7 +8539,7 @@
         <v>333</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8614,7 +8563,7 @@
         <v>336</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -8622,7 +8571,7 @@
         <v>337</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8630,7 +8579,7 @@
         <v>338</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8638,7 +8587,7 @@
         <v>339</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8654,7 +8603,7 @@
         <v>341</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8662,7 +8611,7 @@
         <v>342</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8670,7 +8619,7 @@
         <v>343</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8686,7 +8635,7 @@
         <v>345</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8694,7 +8643,7 @@
         <v>346</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8702,7 +8651,7 @@
         <v>347</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8718,7 +8667,7 @@
         <v>349</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8726,7 +8675,7 @@
         <v>350</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8734,7 +8683,7 @@
         <v>351</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -8742,7 +8691,7 @@
         <v>352</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -8750,7 +8699,7 @@
         <v>353</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -8758,7 +8707,7 @@
         <v>354</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -8766,7 +8715,7 @@
         <v>355</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1756</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15278,7 +15227,7 @@
         <v>1153</v>
       </c>
       <c r="B1133" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
@@ -15286,7 +15235,7 @@
         <v>1154</v>
       </c>
       <c r="B1134" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
@@ -15294,7 +15243,7 @@
         <v>1155</v>
       </c>
       <c r="B1135" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
@@ -15302,7 +15251,7 @@
         <v>1156</v>
       </c>
       <c r="B1136" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
@@ -15310,7 +15259,7 @@
         <v>1157</v>
       </c>
       <c r="B1137" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
@@ -15318,7 +15267,7 @@
         <v>1158</v>
       </c>
       <c r="B1138" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15326,7 +15275,7 @@
         <v>1159</v>
       </c>
       <c r="B1139" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
@@ -15334,7 +15283,7 @@
         <v>1160</v>
       </c>
       <c r="B1140" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
@@ -15342,7 +15291,7 @@
         <v>1161</v>
       </c>
       <c r="B1141" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
@@ -15350,7 +15299,7 @@
         <v>1162</v>
       </c>
       <c r="B1142" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
@@ -15358,7 +15307,7 @@
         <v>1163</v>
       </c>
       <c r="B1143" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
@@ -15366,7 +15315,7 @@
         <v>1164</v>
       </c>
       <c r="B1144" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15374,7 +15323,7 @@
         <v>1165</v>
       </c>
       <c r="B1145" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
@@ -15382,7 +15331,7 @@
         <v>1166</v>
       </c>
       <c r="B1146" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
@@ -15390,7 +15339,7 @@
         <v>1167</v>
       </c>
       <c r="B1147" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
@@ -15398,7 +15347,7 @@
         <v>1168</v>
       </c>
       <c r="B1148" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
@@ -15406,7 +15355,7 @@
         <v>1169</v>
       </c>
       <c r="B1149" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15414,7 +15363,7 @@
         <v>1170</v>
       </c>
       <c r="B1150" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
@@ -15422,7 +15371,7 @@
         <v>1171</v>
       </c>
       <c r="B1151" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
@@ -15430,7 +15379,7 @@
         <v>1172</v>
       </c>
       <c r="B1152" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
@@ -15438,7 +15387,7 @@
         <v>1173</v>
       </c>
       <c r="B1153" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
@@ -15446,7 +15395,7 @@
         <v>1174</v>
       </c>
       <c r="B1154" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
@@ -15454,7 +15403,7 @@
         <v>1175</v>
       </c>
       <c r="B1155" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15462,7 +15411,7 @@
         <v>1176</v>
       </c>
       <c r="B1156" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
@@ -15470,7 +15419,7 @@
         <v>1177</v>
       </c>
       <c r="B1157" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
@@ -15478,7 +15427,7 @@
         <v>1178</v>
       </c>
       <c r="B1158" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
@@ -15486,7 +15435,7 @@
         <v>1179</v>
       </c>
       <c r="B1159" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
@@ -15494,7 +15443,7 @@
         <v>1180</v>
       </c>
       <c r="B1160" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
@@ -15502,7 +15451,7 @@
         <v>1181</v>
       </c>
       <c r="B1161" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15510,7 +15459,7 @@
         <v>1182</v>
       </c>
       <c r="B1162" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
@@ -15518,7 +15467,7 @@
         <v>1183</v>
       </c>
       <c r="B1163" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
@@ -15526,7 +15475,7 @@
         <v>1184</v>
       </c>
       <c r="B1164" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
@@ -15534,7 +15483,7 @@
         <v>1185</v>
       </c>
       <c r="B1165" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
@@ -15542,7 +15491,7 @@
         <v>1186</v>
       </c>
       <c r="B1166" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
@@ -15550,7 +15499,7 @@
         <v>1187</v>
       </c>
       <c r="B1167" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15558,7 +15507,7 @@
         <v>1188</v>
       </c>
       <c r="B1168" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
@@ -15566,7 +15515,7 @@
         <v>1189</v>
       </c>
       <c r="B1169" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
@@ -15574,7 +15523,7 @@
         <v>1190</v>
       </c>
       <c r="B1170" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
@@ -15582,7 +15531,7 @@
         <v>1191</v>
       </c>
       <c r="B1171" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
@@ -15590,7 +15539,7 @@
         <v>1192</v>
       </c>
       <c r="B1172" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
@@ -15598,7 +15547,7 @@
         <v>1193</v>
       </c>
       <c r="B1173" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1174" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15606,7 +15555,7 @@
         <v>1194</v>
       </c>
       <c r="B1174" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
@@ -15614,7 +15563,7 @@
         <v>1195</v>
       </c>
       <c r="B1175" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
@@ -15622,7 +15571,7 @@
         <v>1196</v>
       </c>
       <c r="B1176" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
@@ -15630,7 +15579,7 @@
         <v>1197</v>
       </c>
       <c r="B1177" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
@@ -15638,7 +15587,7 @@
         <v>1198</v>
       </c>
       <c r="B1178" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
@@ -15646,7 +15595,7 @@
         <v>1199</v>
       </c>
       <c r="B1179" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15654,7 +15603,7 @@
         <v>1200</v>
       </c>
       <c r="B1180" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
@@ -15662,7 +15611,7 @@
         <v>1201</v>
       </c>
       <c r="B1181" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
@@ -15670,7 +15619,7 @@
         <v>1202</v>
       </c>
       <c r="B1182" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
@@ -15678,7 +15627,7 @@
         <v>1203</v>
       </c>
       <c r="B1183" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
@@ -15686,7 +15635,7 @@
         <v>1204</v>
       </c>
       <c r="B1184" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
@@ -15694,7 +15643,7 @@
         <v>1205</v>
       </c>
       <c r="B1185" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15702,7 +15651,7 @@
         <v>1206</v>
       </c>
       <c r="B1186" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
@@ -15710,7 +15659,7 @@
         <v>1207</v>
       </c>
       <c r="B1187" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
@@ -15718,7 +15667,7 @@
         <v>1208</v>
       </c>
       <c r="B1188" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
@@ -15726,7 +15675,7 @@
         <v>1209</v>
       </c>
       <c r="B1189" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
@@ -15734,7 +15683,7 @@
         <v>1210</v>
       </c>
       <c r="B1190" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
@@ -15742,7 +15691,7 @@
         <v>1211</v>
       </c>
       <c r="B1191" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1192" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15750,7 +15699,7 @@
         <v>1212</v>
       </c>
       <c r="B1192" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
@@ -15758,7 +15707,7 @@
         <v>1213</v>
       </c>
       <c r="B1193" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
@@ -15766,7 +15715,7 @@
         <v>1214</v>
       </c>
       <c r="B1194" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
@@ -15774,7 +15723,7 @@
         <v>1215</v>
       </c>
       <c r="B1195" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
@@ -15782,7 +15731,7 @@
         <v>1216</v>
       </c>
       <c r="B1196" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
@@ -15790,7 +15739,7 @@
         <v>1217</v>
       </c>
       <c r="B1197" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15798,7 +15747,7 @@
         <v>1218</v>
       </c>
       <c r="B1198" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
@@ -15806,7 +15755,7 @@
         <v>1219</v>
       </c>
       <c r="B1199" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
@@ -15814,7 +15763,7 @@
         <v>1220</v>
       </c>
       <c r="B1200" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
@@ -15822,7 +15771,7 @@
         <v>1221</v>
       </c>
       <c r="B1201" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
@@ -15830,7 +15779,7 @@
         <v>1222</v>
       </c>
       <c r="B1202" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
@@ -15838,7 +15787,7 @@
         <v>1223</v>
       </c>
       <c r="B1203" s="2" t="s">
-        <v>1928</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
@@ -15846,7 +15795,7 @@
         <v>1224</v>
       </c>
       <c r="B1204" s="2" t="s">
-        <v>1926</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
@@ -15878,7 +15827,7 @@
         <v>1228</v>
       </c>
       <c r="B1208" s="2" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
@@ -15886,7 +15835,7 @@
         <v>1229</v>
       </c>
       <c r="B1209" s="2" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
@@ -15894,7 +15843,7 @@
         <v>1230</v>
       </c>
       <c r="B1210" s="2" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
@@ -15902,7 +15851,7 @@
         <v>1231</v>
       </c>
       <c r="B1211" s="2" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
@@ -15910,7 +15859,7 @@
         <v>1232</v>
       </c>
       <c r="B1212" s="2" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
@@ -15918,7 +15867,7 @@
         <v>1233</v>
       </c>
       <c r="B1213" s="2" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
@@ -15926,7 +15875,7 @@
         <v>1234</v>
       </c>
       <c r="B1214" s="2" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
@@ -15934,7 +15883,7 @@
         <v>1235</v>
       </c>
       <c r="B1215" s="2" t="s">
-        <v>1927</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15942,7 +15891,7 @@
         <v>1236</v>
       </c>
       <c r="B1216" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15966,7 +15915,7 @@
         <v>1239</v>
       </c>
       <c r="B1219" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
@@ -15974,7 +15923,7 @@
         <v>1240</v>
       </c>
       <c r="B1220" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
@@ -15982,7 +15931,7 @@
         <v>1241</v>
       </c>
       <c r="B1221" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
@@ -15990,7 +15939,7 @@
         <v>1242</v>
       </c>
       <c r="B1222" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15998,7 +15947,7 @@
         <v>1243</v>
       </c>
       <c r="B1223" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16022,7 +15971,7 @@
         <v>1246</v>
       </c>
       <c r="B1226" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
@@ -16030,7 +15979,7 @@
         <v>1247</v>
       </c>
       <c r="B1227" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
@@ -16038,7 +15987,7 @@
         <v>1248</v>
       </c>
       <c r="B1228" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
@@ -16046,7 +15995,7 @@
         <v>1249</v>
       </c>
       <c r="B1229" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
@@ -16078,7 +16027,7 @@
         <v>1253</v>
       </c>
       <c r="B1233" s="2" t="s">
-        <v>1929</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16198,7 +16147,7 @@
         <v>19</v>
       </c>
       <c r="B1248" s="2" t="s">
-        <v>1702</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1249" spans="1:2" x14ac:dyDescent="0.25">
@@ -16206,7 +16155,7 @@
         <v>20</v>
       </c>
       <c r="B1249" s="2" t="s">
-        <v>1706</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1250" spans="1:2" x14ac:dyDescent="0.25">
@@ -16230,7 +16179,7 @@
         <v>23</v>
       </c>
       <c r="B1252" s="2" t="s">
-        <v>1922</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1253" spans="1:2" x14ac:dyDescent="0.25">
@@ -16262,7 +16211,7 @@
         <v>27</v>
       </c>
       <c r="B1256" s="2" t="s">
-        <v>1924</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1257" spans="1:2" ht="120" x14ac:dyDescent="0.25">
@@ -16270,7 +16219,7 @@
         <v>28</v>
       </c>
       <c r="B1257" s="2" t="s">
-        <v>1860</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1258" spans="1:2" x14ac:dyDescent="0.25">
@@ -16278,7 +16227,7 @@
         <v>29</v>
       </c>
       <c r="B1258" t="s">
-        <v>1757</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1259" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16286,7 +16235,7 @@
         <v>30</v>
       </c>
       <c r="B1259" s="2" t="s">
-        <v>1861</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1260" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16294,7 +16243,7 @@
         <v>31</v>
       </c>
       <c r="B1260" s="2" t="s">
-        <v>1862</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1261" spans="1:2" x14ac:dyDescent="0.25">
@@ -16310,7 +16259,7 @@
         <v>33</v>
       </c>
       <c r="B1262" s="2" t="s">
-        <v>1863</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1263" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16318,7 +16267,7 @@
         <v>34</v>
       </c>
       <c r="B1263" s="2" t="s">
-        <v>1864</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1264" spans="1:2" x14ac:dyDescent="0.25">
@@ -16334,7 +16283,7 @@
         <v>36</v>
       </c>
       <c r="B1265" s="2" t="s">
-        <v>1694</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
@@ -16350,7 +16299,7 @@
         <v>38</v>
       </c>
       <c r="B1267" s="2" t="s">
-        <v>1668</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1268" spans="1:2" x14ac:dyDescent="0.25">
@@ -16379,15 +16328,15 @@
     </row>
     <row r="1271" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1271" s="2" t="s">
-        <v>1669</v>
+        <v>1652</v>
       </c>
       <c r="B1271" s="2" t="s">
-        <v>1670</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1272" s="2" t="s">
-        <v>1865</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1273" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16395,7 +16344,7 @@
         <v>1270</v>
       </c>
       <c r="B1273" s="2" t="s">
-        <v>1866</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1274" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16403,7 +16352,7 @@
         <v>1271</v>
       </c>
       <c r="B1274" s="2" t="s">
-        <v>1867</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1275" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16411,7 +16360,7 @@
         <v>1272</v>
       </c>
       <c r="B1275" s="2" t="s">
-        <v>1867</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1276" spans="1:2" x14ac:dyDescent="0.25">
@@ -16419,7 +16368,7 @@
         <v>1273</v>
       </c>
       <c r="B1276" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
@@ -16427,7 +16376,7 @@
         <v>1274</v>
       </c>
       <c r="B1277" s="2" t="s">
-        <v>1755</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1278" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16435,7 +16384,7 @@
         <v>1275</v>
       </c>
       <c r="B1278" s="2" t="s">
-        <v>1868</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1279" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16443,7 +16392,7 @@
         <v>1276</v>
       </c>
       <c r="B1279" s="2" t="s">
-        <v>1869</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1280" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16451,7 +16400,7 @@
         <v>1277</v>
       </c>
       <c r="B1280" s="2" t="s">
-        <v>1870</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1281" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16459,7 +16408,7 @@
         <v>1278</v>
       </c>
       <c r="B1281" s="2" t="s">
-        <v>1870</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1282" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16467,7 +16416,7 @@
         <v>1279</v>
       </c>
       <c r="B1282" s="2" t="s">
-        <v>1871</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16475,7 +16424,7 @@
         <v>1280</v>
       </c>
       <c r="B1283" s="2" t="s">
-        <v>1872</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1284" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16483,7 +16432,7 @@
         <v>1281</v>
       </c>
       <c r="B1284" s="2" t="s">
-        <v>1873</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1285" spans="1:2" ht="150" x14ac:dyDescent="0.25">
@@ -16491,7 +16440,7 @@
         <v>1282</v>
       </c>
       <c r="B1285" s="2" t="s">
-        <v>1874</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1286" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16499,7 +16448,7 @@
         <v>1283</v>
       </c>
       <c r="B1286" s="2" t="s">
-        <v>1875</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1287" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16507,7 +16456,7 @@
         <v>1284</v>
       </c>
       <c r="B1287" s="2" t="s">
-        <v>1876</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1288" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -16515,7 +16464,7 @@
         <v>1285</v>
       </c>
       <c r="B1288" s="2" t="s">
-        <v>1877</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1289" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16523,7 +16472,7 @@
         <v>1286</v>
       </c>
       <c r="B1289" s="2" t="s">
-        <v>1878</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1290" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16531,7 +16480,7 @@
         <v>1287</v>
       </c>
       <c r="B1290" s="2" t="s">
-        <v>1879</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16539,7 +16488,7 @@
         <v>1288</v>
       </c>
       <c r="B1291" s="2" t="s">
-        <v>1880</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1292" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16547,7 +16496,7 @@
         <v>1289</v>
       </c>
       <c r="B1292" s="2" t="s">
-        <v>1880</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1293" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16555,7 +16504,7 @@
         <v>1290</v>
       </c>
       <c r="B1293" s="2" t="s">
-        <v>1882</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1294" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16563,7 +16512,7 @@
         <v>1291</v>
       </c>
       <c r="B1294" s="2" t="s">
-        <v>1881</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1295" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16571,7 +16520,7 @@
         <v>1292</v>
       </c>
       <c r="B1295" s="2" t="s">
-        <v>1883</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1296" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16579,7 +16528,7 @@
         <v>1293</v>
       </c>
       <c r="B1296" s="2" t="s">
-        <v>1883</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1297" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -16587,7 +16536,7 @@
         <v>1294</v>
       </c>
       <c r="B1297" s="2" t="s">
-        <v>1884</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1298" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -16595,7 +16544,7 @@
         <v>1295</v>
       </c>
       <c r="B1298" s="2" t="s">
-        <v>1885</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1299" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -16603,7 +16552,7 @@
         <v>1296</v>
       </c>
       <c r="B1299" s="2" t="s">
-        <v>1886</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1300" spans="1:3" ht="105" x14ac:dyDescent="0.25">
@@ -16611,7 +16560,7 @@
         <v>1297</v>
       </c>
       <c r="B1300" s="2" t="s">
-        <v>1887</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1301" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -16619,7 +16568,7 @@
         <v>1298</v>
       </c>
       <c r="B1301" s="2" t="s">
-        <v>1888</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1302" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -16627,7 +16576,7 @@
         <v>1299</v>
       </c>
       <c r="B1302" s="2" t="s">
-        <v>1889</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1303" spans="1:3" ht="135" x14ac:dyDescent="0.25">
@@ -16635,7 +16584,7 @@
         <v>1300</v>
       </c>
       <c r="B1303" s="2" t="s">
-        <v>1890</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1304" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -16643,7 +16592,7 @@
         <v>1301</v>
       </c>
       <c r="B1304" s="2" t="s">
-        <v>1891</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1305" spans="1:3" ht="165" x14ac:dyDescent="0.25">
@@ -16651,7 +16600,7 @@
         <v>1302</v>
       </c>
       <c r="B1305" s="2" t="s">
-        <v>1891</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1306" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -16659,7 +16608,7 @@
         <v>1303</v>
       </c>
       <c r="B1306" s="2" t="s">
-        <v>1892</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -16667,10 +16616,10 @@
         <v>1305</v>
       </c>
       <c r="B1307" s="2" t="s">
-        <v>1781</v>
+        <v>1764</v>
       </c>
       <c r="C1307" s="2" t="s">
-        <v>1782</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -16678,10 +16627,10 @@
         <v>1304</v>
       </c>
       <c r="B1308" s="2" t="s">
-        <v>1781</v>
+        <v>1764</v>
       </c>
       <c r="C1308" s="2" t="s">
-        <v>1782</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1309" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -16689,7 +16638,7 @@
         <v>1306</v>
       </c>
       <c r="B1309" s="2" t="s">
-        <v>1894</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1310" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -16697,7 +16646,7 @@
         <v>1307</v>
       </c>
       <c r="B1310" s="2" t="s">
-        <v>1893</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1311" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -16705,7 +16654,7 @@
         <v>1308</v>
       </c>
       <c r="B1311" s="2" t="s">
-        <v>1895</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1312" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -16713,7 +16662,7 @@
         <v>1309</v>
       </c>
       <c r="B1312" s="2" t="s">
-        <v>1896</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1313" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16721,7 +16670,7 @@
         <v>1310</v>
       </c>
       <c r="B1313" s="2" t="s">
-        <v>1897</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1314" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16729,7 +16678,7 @@
         <v>1311</v>
       </c>
       <c r="B1314" s="2" t="s">
-        <v>1898</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1315" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16737,23 +16686,23 @@
         <v>1312</v>
       </c>
       <c r="B1315" s="2" t="s">
-        <v>1899</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1316" s="2" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="B1316" s="2" t="s">
-        <v>1900</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1317" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1317" s="2" t="s">
-        <v>1433</v>
+        <v>1417</v>
       </c>
       <c r="B1317" s="2" t="s">
-        <v>1900</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1318" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16761,55 +16710,55 @@
         <v>1314</v>
       </c>
       <c r="B1318" s="2" t="s">
-        <v>1901</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1319" s="2" t="s">
-        <v>1434</v>
+        <v>1418</v>
       </c>
       <c r="B1319" s="2" t="s">
-        <v>1902</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1320" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1320" s="2" t="s">
-        <v>1435</v>
+        <v>1419</v>
       </c>
       <c r="B1320" s="2" t="s">
-        <v>1903</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1321" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1321" s="2" t="s">
-        <v>1436</v>
+        <v>1420</v>
       </c>
       <c r="B1321" s="2" t="s">
-        <v>1904</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1322" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1322" s="2" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="B1322" s="2" t="s">
-        <v>1905</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1323" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1323" s="2" t="s">
-        <v>1438</v>
+        <v>1422</v>
       </c>
       <c r="B1323" s="2" t="s">
-        <v>1906</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1324" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1324" s="2" t="s">
-        <v>1439</v>
+        <v>1423</v>
       </c>
       <c r="B1324" s="2" t="s">
-        <v>1907</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1325" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -16817,15 +16766,15 @@
         <v>1313</v>
       </c>
       <c r="B1325" s="2" t="s">
-        <v>1908</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1326" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1326" s="2" t="s">
-        <v>1440</v>
+        <v>1424</v>
       </c>
       <c r="B1326" s="2" t="s">
-        <v>1854</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1327" spans="1:2" x14ac:dyDescent="0.25">
@@ -16833,7 +16782,7 @@
         <v>1315</v>
       </c>
       <c r="B1327" s="2" t="s">
-        <v>1649</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1328" spans="1:2" x14ac:dyDescent="0.25">
@@ -16841,7 +16790,7 @@
         <v>1316</v>
       </c>
       <c r="B1328" s="1" t="s">
-        <v>1646</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1329" spans="1:2" x14ac:dyDescent="0.25">
@@ -16849,7 +16798,7 @@
         <v>1317</v>
       </c>
       <c r="B1329" s="2" t="s">
-        <v>1688</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1330" spans="1:2" x14ac:dyDescent="0.25">
@@ -16857,7 +16806,7 @@
         <v>1318</v>
       </c>
       <c r="B1330" s="2" t="s">
-        <v>1688</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1331" spans="1:2" x14ac:dyDescent="0.25">
@@ -16865,7 +16814,7 @@
         <v>1319</v>
       </c>
       <c r="B1331" s="2" t="s">
-        <v>1687</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1332" spans="1:2" x14ac:dyDescent="0.25">
@@ -16873,7 +16822,7 @@
         <v>1320</v>
       </c>
       <c r="B1332" s="2" t="s">
-        <v>1687</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1333" spans="1:2" x14ac:dyDescent="0.25">
@@ -16881,7 +16830,7 @@
         <v>1321</v>
       </c>
       <c r="B1333" s="2" t="s">
-        <v>1687</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1334" spans="1:2" x14ac:dyDescent="0.25">
@@ -16889,7 +16838,7 @@
         <v>1322</v>
       </c>
       <c r="B1334" s="2" t="s">
-        <v>1688</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="1335" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16897,7 +16846,7 @@
         <v>1323</v>
       </c>
       <c r="B1335" s="2" t="s">
-        <v>1682</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1336" spans="1:2" x14ac:dyDescent="0.25">
@@ -16905,7 +16854,7 @@
         <v>1324</v>
       </c>
       <c r="B1336" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1337" spans="1:2" x14ac:dyDescent="0.25">
@@ -16913,7 +16862,7 @@
         <v>1325</v>
       </c>
       <c r="B1337" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1338" spans="1:2" x14ac:dyDescent="0.25">
@@ -16921,7 +16870,7 @@
         <v>1326</v>
       </c>
       <c r="B1338" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1339" spans="1:2" x14ac:dyDescent="0.25">
@@ -16929,7 +16878,7 @@
         <v>1327</v>
       </c>
       <c r="B1339" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1340" spans="1:2" x14ac:dyDescent="0.25">
@@ -16937,7 +16886,7 @@
         <v>1328</v>
       </c>
       <c r="B1340" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1341" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16945,7 +16894,7 @@
         <v>1329</v>
       </c>
       <c r="B1341" s="2" t="s">
-        <v>1682</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1342" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16953,7 +16902,7 @@
         <v>1330</v>
       </c>
       <c r="B1342" s="2" t="s">
-        <v>1682</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16961,7 +16910,7 @@
         <v>1331</v>
       </c>
       <c r="B1343" s="2" t="s">
-        <v>1682</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1344" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16969,7 +16918,7 @@
         <v>1332</v>
       </c>
       <c r="B1344" s="2" t="s">
-        <v>1682</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1345" spans="1:2" x14ac:dyDescent="0.25">
@@ -16977,7 +16926,7 @@
         <v>1333</v>
       </c>
       <c r="B1345" s="2" t="s">
-        <v>1659</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1346" spans="1:2" x14ac:dyDescent="0.25">
@@ -16985,7 +16934,7 @@
         <v>1334</v>
       </c>
       <c r="B1346" s="2" t="s">
-        <v>1659</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1347" spans="1:2" x14ac:dyDescent="0.25">
@@ -16993,7 +16942,7 @@
         <v>1335</v>
       </c>
       <c r="B1347" s="2" t="s">
-        <v>1662</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1348" spans="1:2" x14ac:dyDescent="0.25">
@@ -17001,7 +16950,7 @@
         <v>1336</v>
       </c>
       <c r="B1348" s="2" t="s">
-        <v>1665</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1349" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17009,7 +16958,7 @@
         <v>1337</v>
       </c>
       <c r="B1349" s="2" t="s">
-        <v>1664</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1350" spans="1:2" x14ac:dyDescent="0.25">
@@ -17017,7 +16966,7 @@
         <v>1338</v>
       </c>
       <c r="B1350" s="2" t="s">
-        <v>1663</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="1351" spans="1:2" x14ac:dyDescent="0.25">
@@ -17025,7 +16974,7 @@
         <v>1339</v>
       </c>
       <c r="B1351" s="2" t="s">
-        <v>1665</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1352" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17033,7 +16982,7 @@
         <v>1340</v>
       </c>
       <c r="B1352" s="2" t="s">
-        <v>1664</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17041,7 +16990,7 @@
         <v>1341</v>
       </c>
       <c r="B1353" s="2" t="s">
-        <v>1658</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1354" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17049,7 +16998,7 @@
         <v>1342</v>
       </c>
       <c r="B1354" s="2" t="s">
-        <v>1658</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="1355" spans="1:2" x14ac:dyDescent="0.25">
@@ -17057,7 +17006,7 @@
         <v>1343</v>
       </c>
       <c r="B1355" s="2" t="s">
-        <v>1695</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1356" spans="1:2" x14ac:dyDescent="0.25">
@@ -17065,7 +17014,7 @@
         <v>1344</v>
       </c>
       <c r="B1356" s="2" t="s">
-        <v>1695</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1357" spans="1:2" x14ac:dyDescent="0.25">
@@ -17073,7 +17022,7 @@
         <v>1345</v>
       </c>
       <c r="B1357" s="2" t="s">
-        <v>1695</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1358" spans="1:2" x14ac:dyDescent="0.25">
@@ -17081,7 +17030,7 @@
         <v>1346</v>
       </c>
       <c r="B1358" s="2" t="s">
-        <v>1695</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1359" spans="1:2" x14ac:dyDescent="0.25">
@@ -17089,7 +17038,7 @@
         <v>1347</v>
       </c>
       <c r="B1359" s="2" t="s">
-        <v>1694</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1360" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17097,7 +17046,7 @@
         <v>1348</v>
       </c>
       <c r="B1360" s="2" t="s">
-        <v>1696</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1361" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17105,7 +17054,7 @@
         <v>1349</v>
       </c>
       <c r="B1361" s="2" t="s">
-        <v>1696</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17113,7 +17062,7 @@
         <v>1350</v>
       </c>
       <c r="B1362" s="2" t="s">
-        <v>1696</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1363" spans="1:2" x14ac:dyDescent="0.25">
@@ -17121,7 +17070,7 @@
         <v>1351</v>
       </c>
       <c r="B1363" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1364" spans="1:2" x14ac:dyDescent="0.25">
@@ -17129,7 +17078,7 @@
         <v>1352</v>
       </c>
       <c r="B1364" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1365" spans="1:2" x14ac:dyDescent="0.25">
@@ -17137,7 +17086,7 @@
         <v>1353</v>
       </c>
       <c r="B1365" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1366" spans="1:2" x14ac:dyDescent="0.25">
@@ -17145,7 +17094,7 @@
         <v>1354</v>
       </c>
       <c r="B1366" s="2" t="s">
-        <v>1698</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1367" spans="1:2" x14ac:dyDescent="0.25">
@@ -17153,7 +17102,7 @@
         <v>1355</v>
       </c>
       <c r="B1367" s="2" t="s">
-        <v>1699</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17161,7 +17110,7 @@
         <v>1356</v>
       </c>
       <c r="B1368" s="2" t="s">
-        <v>1697</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1369" spans="1:2" x14ac:dyDescent="0.25">
@@ -17169,7 +17118,7 @@
         <v>1357</v>
       </c>
       <c r="B1369" s="2" t="s">
-        <v>1698</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1370" spans="1:2" x14ac:dyDescent="0.25">
@@ -17177,7 +17126,7 @@
         <v>1358</v>
       </c>
       <c r="B1370" s="2" t="s">
-        <v>1699</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17185,7 +17134,7 @@
         <v>1359</v>
       </c>
       <c r="B1371" s="2" t="s">
-        <v>1697</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17193,7 +17142,7 @@
         <v>1360</v>
       </c>
       <c r="B1372" s="2" t="s">
-        <v>1700</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17201,7 +17150,7 @@
         <v>1361</v>
       </c>
       <c r="B1373" s="2" t="s">
-        <v>1701</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1374" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17209,7 +17158,7 @@
         <v>1362</v>
       </c>
       <c r="B1374" s="2" t="s">
-        <v>1701</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17217,7 +17166,7 @@
         <v>1363</v>
       </c>
       <c r="B1375" s="2" t="s">
-        <v>1700</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1376" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17225,7 +17174,7 @@
         <v>1364</v>
       </c>
       <c r="B1376" s="2" t="s">
-        <v>1701</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1377" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17233,7 +17182,7 @@
         <v>1365</v>
       </c>
       <c r="B1377" s="2" t="s">
-        <v>1700</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1378" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17241,7 +17190,7 @@
         <v>1366</v>
       </c>
       <c r="B1378" s="2" t="s">
-        <v>1703</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1379" spans="1:2" x14ac:dyDescent="0.25">
@@ -17249,7 +17198,7 @@
         <v>1367</v>
       </c>
       <c r="B1379" s="2" t="s">
-        <v>1705</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1380" spans="1:2" x14ac:dyDescent="0.25">
@@ -17257,7 +17206,7 @@
         <v>1368</v>
       </c>
       <c r="B1380" s="2" t="s">
-        <v>1706</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1381" spans="1:2" x14ac:dyDescent="0.25">
@@ -17265,7 +17214,7 @@
         <v>1369</v>
       </c>
       <c r="B1381" s="2" t="s">
-        <v>1705</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1382" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17273,7 +17222,7 @@
         <v>1370</v>
       </c>
       <c r="B1382" s="2" t="s">
-        <v>1703</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="1383" spans="1:2" x14ac:dyDescent="0.25">
@@ -17281,7 +17230,7 @@
         <v>1371</v>
       </c>
       <c r="B1383" s="2" t="s">
-        <v>1705</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1384" spans="1:2" x14ac:dyDescent="0.25">
@@ -17289,7 +17238,7 @@
         <v>1372</v>
       </c>
       <c r="B1384" s="2" t="s">
-        <v>1705</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="1385" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17297,7 +17246,7 @@
         <v>1373</v>
       </c>
       <c r="B1385" s="2" t="s">
-        <v>1707</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1386" spans="1:2" x14ac:dyDescent="0.25">
@@ -17305,7 +17254,7 @@
         <v>1374</v>
       </c>
       <c r="B1386" s="2" t="s">
-        <v>1708</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1387" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17313,7 +17262,7 @@
         <v>1375</v>
       </c>
       <c r="B1387" s="2" t="s">
-        <v>1704</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17321,7 +17270,7 @@
         <v>1376</v>
       </c>
       <c r="B1388" s="2" t="s">
-        <v>1707</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1389" spans="1:2" x14ac:dyDescent="0.25">
@@ -17329,7 +17278,7 @@
         <v>1377</v>
       </c>
       <c r="B1389" s="2" t="s">
-        <v>1708</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17337,7 +17286,7 @@
         <v>1378</v>
       </c>
       <c r="B1390" s="2" t="s">
-        <v>1704</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="1391" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17345,7 +17294,7 @@
         <v>1379</v>
       </c>
       <c r="B1391" s="2" t="s">
-        <v>1711</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1392" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17353,7 +17302,7 @@
         <v>1380</v>
       </c>
       <c r="B1392" s="2" t="s">
-        <v>1710</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1393" spans="1:2" x14ac:dyDescent="0.25">
@@ -17361,7 +17310,7 @@
         <v>1381</v>
       </c>
       <c r="B1393" s="2" t="s">
-        <v>1712</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1394" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17369,7 +17318,7 @@
         <v>1382</v>
       </c>
       <c r="B1394" s="2" t="s">
-        <v>1711</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1395" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17377,7 +17326,7 @@
         <v>1383</v>
       </c>
       <c r="B1395" s="2" t="s">
-        <v>1710</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
@@ -17385,7 +17334,7 @@
         <v>1384</v>
       </c>
       <c r="B1396" s="2" t="s">
-        <v>1712</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1397" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17393,7 +17342,7 @@
         <v>1385</v>
       </c>
       <c r="B1397" s="2" t="s">
-        <v>1715</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
@@ -17401,7 +17350,7 @@
         <v>1386</v>
       </c>
       <c r="B1398" s="2" t="s">
-        <v>1714</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1399" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17409,7 +17358,7 @@
         <v>1387</v>
       </c>
       <c r="B1399" s="2" t="s">
-        <v>1713</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1400" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17417,7 +17366,7 @@
         <v>1388</v>
       </c>
       <c r="B1400" s="2" t="s">
-        <v>1713</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1401" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17425,7 +17374,7 @@
         <v>1389</v>
       </c>
       <c r="B1401" s="2" t="s">
-        <v>1715</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
@@ -17433,7 +17382,7 @@
         <v>1390</v>
       </c>
       <c r="B1402" s="2" t="s">
-        <v>1714</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17441,7 +17390,7 @@
         <v>1391</v>
       </c>
       <c r="B1403" s="2" t="s">
-        <v>1920</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1404" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17449,7 +17398,7 @@
         <v>1392</v>
       </c>
       <c r="B1404" s="2" t="s">
-        <v>1920</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1405" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17457,7 +17406,7 @@
         <v>1393</v>
       </c>
       <c r="B1405" s="2" t="s">
-        <v>1921</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1406" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17465,7 +17414,7 @@
         <v>1394</v>
       </c>
       <c r="B1406" s="2" t="s">
-        <v>1921</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
@@ -17473,7 +17422,7 @@
         <v>1395</v>
       </c>
       <c r="B1407" s="2" t="s">
-        <v>1648</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
@@ -17481,7 +17430,7 @@
         <v>1396</v>
       </c>
       <c r="B1408" s="2" t="s">
-        <v>1648</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
@@ -17489,7 +17438,7 @@
         <v>1397</v>
       </c>
       <c r="B1409" s="2" t="s">
-        <v>1922</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17497,7 +17446,7 @@
         <v>1398</v>
       </c>
       <c r="B1410" s="2" t="s">
-        <v>1923</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1411" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17505,7 +17454,7 @@
         <v>1399</v>
       </c>
       <c r="B1411" s="2" t="s">
-        <v>1923</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
@@ -17513,7 +17462,7 @@
         <v>1400</v>
       </c>
       <c r="B1412" s="2" t="s">
-        <v>1925</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
@@ -17521,7 +17470,7 @@
         <v>1401</v>
       </c>
       <c r="B1413" s="2" t="s">
-        <v>1693</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
@@ -17529,7 +17478,7 @@
         <v>1402</v>
       </c>
       <c r="B1414" s="2" t="s">
-        <v>1681</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
@@ -17537,7 +17486,7 @@
         <v>1403</v>
       </c>
       <c r="B1415" s="2" t="s">
-        <v>1709</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
@@ -17545,7 +17494,7 @@
         <v>1404</v>
       </c>
       <c r="B1416" s="2" t="s">
-        <v>1709</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
@@ -17553,7 +17502,7 @@
         <v>1405</v>
       </c>
       <c r="B1417" s="2" t="s">
-        <v>1662</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
@@ -17561,7 +17510,7 @@
         <v>1406</v>
       </c>
       <c r="B1418" s="2" t="s">
-        <v>1659</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
@@ -17569,7 +17518,7 @@
         <v>1407</v>
       </c>
       <c r="B1419" s="2" t="s">
-        <v>1659</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17577,7 +17526,7 @@
         <v>1408</v>
       </c>
       <c r="B1420" s="2" t="s">
-        <v>1661</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1421" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17585,7 +17534,7 @@
         <v>1409</v>
       </c>
       <c r="B1421" s="2" t="s">
-        <v>1661</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
@@ -17593,7 +17542,7 @@
         <v>1410</v>
       </c>
       <c r="B1422" s="2" t="s">
-        <v>1659</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
@@ -17601,7 +17550,7 @@
         <v>1411</v>
       </c>
       <c r="B1423" s="2" t="s">
-        <v>1659</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17609,26 +17558,26 @@
         <v>1412</v>
       </c>
       <c r="B1424" s="2" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1425" s="2" t="s">
         <v>1413</v>
       </c>
       <c r="B1425" s="2" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1426" s="2" t="s">
         <v>1414</v>
       </c>
       <c r="B1426" s="2" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1427" s="2" t="s">
         <v>1415</v>
       </c>
@@ -17636,218 +17585,218 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1428" s="2" t="s">
-        <v>1416</v>
+        <v>1425</v>
       </c>
       <c r="B1428" s="2" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1429" s="2" t="s">
-        <v>1417</v>
+        <v>1426</v>
       </c>
       <c r="B1429" s="2" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1430" s="2" t="s">
-        <v>1418</v>
+        <v>1427</v>
       </c>
       <c r="B1430" s="2" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1764</v>
+      </c>
+      <c r="C1430" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1431" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B1431" s="2" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1428</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1432" s="2" t="s">
-        <v>1420</v>
+        <v>1429</v>
       </c>
       <c r="B1432" s="2" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1433" s="2" t="s">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="B1433" s="2" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1434" s="2" t="s">
-        <v>1422</v>
+        <v>1431</v>
       </c>
       <c r="B1434" s="2" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1435" s="2" t="s">
-        <v>1423</v>
+        <v>1432</v>
       </c>
       <c r="B1435" s="2" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1436" s="2" t="s">
-        <v>1424</v>
+        <v>1433</v>
       </c>
       <c r="B1436" s="2" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1437" s="2" t="s">
-        <v>1425</v>
+        <v>1435</v>
       </c>
       <c r="B1437" s="2" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1438" s="2" t="s">
-        <v>1426</v>
+        <v>1436</v>
       </c>
       <c r="B1438" s="2" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1439" s="2" t="s">
-        <v>1427</v>
+        <v>1437</v>
       </c>
       <c r="B1439" s="2" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1440" s="2" t="s">
-        <v>1428</v>
+        <v>1438</v>
       </c>
       <c r="B1440" s="2" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1441" s="2" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
       <c r="B1441" s="2" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1442" s="2" t="s">
-        <v>1430</v>
+        <v>1440</v>
       </c>
       <c r="B1442" s="2" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1443" s="2" t="s">
-        <v>1431</v>
+        <v>1441</v>
       </c>
       <c r="B1443" s="2" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1444" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B1444" s="2" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1445" s="2" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B1445" s="2" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1446" s="2" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B1446" s="2" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="1447" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1447" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B1447" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C1447" s="2" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1448" s="2" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B1448" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1446</v>
+      </c>
+      <c r="B1448" s="2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1449" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B1449" s="2" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1450" s="2" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B1450" s="2" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1451" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B1451" s="2" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1452" s="2" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B1452" s="2" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1453" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B1453" s="2" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="1454" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1454" s="2" t="s">
         <v>1452</v>
       </c>
@@ -17855,7 +17804,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="1455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1455" s="2" t="s">
         <v>1453</v>
       </c>
@@ -17863,12 +17812,12 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="1456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1456" s="2" t="s">
         <v>1454</v>
       </c>
       <c r="B1456" s="2" t="s">
-        <v>1853</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
@@ -17895,7 +17844,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="1460" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1460" s="2" t="s">
         <v>1458</v>
       </c>
@@ -18255,12 +18204,12 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="1505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1505" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1505" s="2" t="s">
         <v>1503</v>
       </c>
       <c r="B1505" s="2" t="s">
-        <v>1503</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1506" spans="1:2" x14ac:dyDescent="0.25">
@@ -18279,28 +18228,28 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="1508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1508" s="2" t="s">
         <v>1506</v>
       </c>
       <c r="B1508" s="2" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1509" s="2" t="s">
         <v>1507</v>
       </c>
       <c r="B1509" s="2" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1510" s="2" t="s">
         <v>1508</v>
       </c>
       <c r="B1510" s="2" t="s">
-        <v>1508</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1511" spans="1:2" x14ac:dyDescent="0.25">
@@ -18319,20 +18268,20 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="1513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1513" s="2" t="s">
         <v>1511</v>
       </c>
       <c r="B1513" s="2" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1514" s="2" t="s">
         <v>1512</v>
       </c>
       <c r="B1514" s="2" t="s">
-        <v>1512</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1515" spans="1:2" x14ac:dyDescent="0.25">
@@ -18351,20 +18300,20 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="1517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1517" s="2" t="s">
         <v>1515</v>
       </c>
       <c r="B1517" s="2" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1518" s="2" t="s">
         <v>1516</v>
       </c>
       <c r="B1518" s="2" t="s">
-        <v>1516</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.25">
@@ -18375,28 +18324,28 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="1520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1520" s="2" t="s">
         <v>1518</v>
       </c>
       <c r="B1520" s="2" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1521" s="2" t="s">
         <v>1519</v>
       </c>
       <c r="B1521" s="2" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="1522" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1522" s="2" t="s">
         <v>1520</v>
       </c>
       <c r="B1522" s="2" t="s">
-        <v>1864</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1523" spans="1:2" x14ac:dyDescent="0.25">
@@ -18412,31 +18361,31 @@
         <v>1522</v>
       </c>
       <c r="B1524" s="2" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="1525" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1525" s="2" t="s">
         <v>1523</v>
       </c>
       <c r="B1525" s="2" t="s">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="1526" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1526" s="2" t="s">
         <v>1524</v>
       </c>
       <c r="B1526" s="2" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="1527" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1527" s="2" t="s">
         <v>1525</v>
       </c>
       <c r="B1527" s="2" t="s">
-        <v>1911</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
@@ -18455,28 +18404,28 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="1530" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1530" s="2" t="s">
         <v>1528</v>
       </c>
       <c r="B1530" s="2" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="1531" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1531" s="2" t="s">
         <v>1529</v>
       </c>
       <c r="B1531" s="2" t="s">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="1532" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1532" s="2" t="s">
         <v>1530</v>
       </c>
       <c r="B1532" s="2" t="s">
-        <v>1530</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
@@ -18487,20 +18436,20 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="1534" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="1534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1534" s="2" t="s">
         <v>1532</v>
       </c>
       <c r="B1534" s="2" t="s">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="1535" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1535" s="2" t="s">
         <v>1533</v>
       </c>
       <c r="B1535" s="2" t="s">
-        <v>1880</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.25">
@@ -18516,159 +18465,159 @@
         <v>1535</v>
       </c>
       <c r="B1537" s="2" t="s">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1538" s="2" t="s">
         <v>1536</v>
       </c>
       <c r="B1538" s="2" t="s">
-        <v>1916</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1539" s="2" t="s">
-        <v>1537</v>
+        <v>1630</v>
       </c>
       <c r="B1539" s="2" t="s">
-        <v>1537</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1540" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B1540" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1541" s="2" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B1541" s="2" t="s">
-        <v>1761</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1542" s="2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B1542" s="2" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1543" s="2" t="s">
         <v>1540</v>
       </c>
-      <c r="B1542" s="2" t="s">
+      <c r="B1543" s="2" t="s">
         <v>1540</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1543" s="2" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B1543" s="2" t="s">
-        <v>1917</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1544" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B1544" s="2" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="1545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1545" s="2" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B1545" s="2" t="s">
-        <v>1543</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1546" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B1546" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1547" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B1547" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1548" s="2" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B1548" s="2" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1549" s="2" t="s">
         <v>1546</v>
       </c>
-      <c r="B1548" s="2" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="1549" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1549" s="2" t="s">
+      <c r="B1549" s="2" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1550" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B1549" s="2" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="1550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1550" s="2" t="s">
-        <v>1548</v>
-      </c>
       <c r="B1550" s="2" t="s">
-        <v>1548</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1551" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B1551" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1552" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B1552" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1553" s="2" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B1553" s="2" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1554" s="2" t="s">
         <v>1551</v>
       </c>
-      <c r="B1553" s="2" t="s">
+      <c r="B1554" s="2" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="1554" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1554" s="2" t="s">
+    <row r="1555" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1555" s="2" t="s">
         <v>1552</v>
       </c>
-      <c r="B1554" s="2" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1555" s="2" t="s">
-        <v>1553</v>
-      </c>
       <c r="B1555" s="2" t="s">
-        <v>1553</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1556" s="2" t="s">
-        <v>1647</v>
+        <v>1553</v>
       </c>
       <c r="B1556" s="2" t="s">
-        <v>1648</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1557" spans="1:2" x14ac:dyDescent="0.25">
@@ -18679,7 +18628,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="1558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1558" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1558" s="2" t="s">
         <v>1555</v>
       </c>
@@ -18687,7 +18636,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="1559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1559" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1559" s="2" t="s">
         <v>1556</v>
       </c>
@@ -18703,7 +18652,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="1561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1561" s="2" t="s">
         <v>1558</v>
       </c>
@@ -18711,12 +18660,12 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="1562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1562" s="2" t="s">
         <v>1559</v>
       </c>
       <c r="B1562" s="2" t="s">
-        <v>1752</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="1563" spans="1:2" x14ac:dyDescent="0.25">
@@ -18727,12 +18676,12 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="1564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1564" s="2" t="s">
         <v>1561</v>
       </c>
       <c r="B1564" s="2" t="s">
-        <v>1561</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1565" spans="1:2" x14ac:dyDescent="0.25">
@@ -18751,12 +18700,12 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="1567" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1567" s="2" t="s">
         <v>1564</v>
       </c>
       <c r="B1567" s="2" t="s">
-        <v>1768</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="1568" spans="1:2" x14ac:dyDescent="0.25">
@@ -18764,7 +18713,7 @@
         <v>1565</v>
       </c>
       <c r="B1568" s="2" t="s">
-        <v>1565</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1569" spans="1:2" x14ac:dyDescent="0.25">
@@ -18791,12 +18740,12 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="1572" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1572" s="2" t="s">
         <v>1569</v>
       </c>
       <c r="B1572" s="2" t="s">
-        <v>1931</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="1573" spans="1:2" x14ac:dyDescent="0.25">
@@ -18815,7 +18764,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="1575" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1575" s="2" t="s">
         <v>1572</v>
       </c>
@@ -18823,7 +18772,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="1576" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1576" s="2" t="s">
         <v>1573</v>
       </c>
@@ -18839,7 +18788,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="1578" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1578" s="2" t="s">
         <v>1575</v>
       </c>
@@ -18847,7 +18796,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="1579" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1579" s="2" t="s">
         <v>1576</v>
       </c>
@@ -18863,12 +18812,12 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="1581" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1581" s="2" t="s">
         <v>1578</v>
       </c>
       <c r="B1581" s="2" t="s">
-        <v>1826</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1582" spans="1:2" x14ac:dyDescent="0.25">
@@ -18900,7 +18849,7 @@
         <v>1582</v>
       </c>
       <c r="B1585" s="2" t="s">
-        <v>1932</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1586" spans="1:2" x14ac:dyDescent="0.25">
@@ -18963,8 +18912,8 @@
       <c r="A1593" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="B1593" s="2" t="s">
-        <v>1590</v>
+      <c r="B1593" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
@@ -19039,7 +18988,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1603" s="2" t="s">
         <v>1600</v>
       </c>
@@ -19099,8 +19048,8 @@
       <c r="A1610" s="2" t="s">
         <v>1607</v>
       </c>
-      <c r="B1610" t="s">
-        <v>1755</v>
+      <c r="B1610" s="2" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
@@ -19167,1202 +19116,1066 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="1619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1619" s="2" t="s">
-        <v>1616</v>
+        <v>1633</v>
       </c>
       <c r="B1619" s="2" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1620" s="2" t="s">
-        <v>1617</v>
+        <v>1635</v>
       </c>
       <c r="B1620" s="2" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1621" s="2" t="s">
-        <v>1618</v>
+        <v>1637</v>
       </c>
       <c r="B1621" s="2" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1622" s="2" t="s">
-        <v>1619</v>
+        <v>1639</v>
       </c>
       <c r="B1622" s="2" t="s">
-        <v>1619</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1623" s="2" t="s">
-        <v>1620</v>
+        <v>1649</v>
       </c>
       <c r="B1623" s="2" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1624" s="2" t="s">
-        <v>1621</v>
+        <v>1654</v>
       </c>
       <c r="B1624" s="2" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1625" s="2" t="s">
-        <v>1622</v>
+        <v>1656</v>
       </c>
       <c r="B1625" s="2" t="s">
-        <v>1622</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1626" s="2" t="s">
-        <v>1623</v>
+        <v>1658</v>
       </c>
       <c r="B1626" s="2" t="s">
-        <v>1623</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1627" s="2" t="s">
-        <v>1624</v>
-      </c>
-      <c r="B1627" s="2" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1660</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1628" s="2" t="s">
-        <v>1625</v>
+        <v>1662</v>
       </c>
       <c r="B1628" s="2" t="s">
-        <v>1625</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1629" s="2" t="s">
-        <v>1626</v>
+        <v>1666</v>
       </c>
       <c r="B1629" s="2" t="s">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1630" s="2" t="s">
-        <v>1627</v>
+        <v>1667</v>
       </c>
       <c r="B1630" s="2" t="s">
-        <v>1627</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1631" s="2" t="s">
-        <v>1628</v>
+        <v>1672</v>
       </c>
       <c r="B1631" s="2" t="s">
-        <v>1628</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1632" s="2" t="s">
-        <v>1629</v>
+        <v>1674</v>
       </c>
       <c r="B1632" s="2" t="s">
-        <v>1629</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="1633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1633" s="2" t="s">
-        <v>1630</v>
+        <v>1699</v>
       </c>
       <c r="B1633" s="2" t="s">
-        <v>1630</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1634" s="2" t="s">
-        <v>1631</v>
+        <v>1700</v>
       </c>
       <c r="B1634" s="2" t="s">
-        <v>1631</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1635" s="2" t="s">
-        <v>1632</v>
+        <v>1702</v>
       </c>
       <c r="B1635" s="2" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1636" s="2" t="s">
-        <v>1650</v>
+        <v>1703</v>
       </c>
       <c r="B1636" s="2" t="s">
-        <v>1651</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1637" s="2" t="s">
-        <v>1652</v>
+        <v>1704</v>
       </c>
       <c r="B1637" s="2" t="s">
-        <v>1653</v>
-      </c>
-    </row>
-    <row r="1638" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1638" s="2" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B1638" s="2" t="s">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="1639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1705</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1639" s="2" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B1639" s="2" t="s">
-        <v>1657</v>
+        <v>1706</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1640" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B1640" s="2" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="1641" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1707</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1641" s="2" t="s">
-        <v>1671</v>
-      </c>
-      <c r="B1641" s="2" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1708</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1642" s="2" t="s">
-        <v>1673</v>
-      </c>
-      <c r="B1642" s="2" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1709</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1643" s="2" t="s">
-        <v>1675</v>
+        <v>1711</v>
       </c>
       <c r="B1643" s="2" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1644" s="2" t="s">
-        <v>1677</v>
-      </c>
-      <c r="B1644" t="s">
-        <v>1678</v>
+        <v>1712</v>
+      </c>
+      <c r="B1644" s="2" t="s">
+        <v>1721</v>
       </c>
     </row>
     <row r="1645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1645" s="2" t="s">
-        <v>1679</v>
+        <v>1713</v>
       </c>
       <c r="B1645" s="2" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1646" s="2" t="s">
-        <v>1683</v>
+        <v>1714</v>
       </c>
       <c r="B1646" s="2" t="s">
-        <v>1685</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1647" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1647" s="2" t="s">
-        <v>1684</v>
+        <v>1715</v>
       </c>
       <c r="B1647" s="2" t="s">
-        <v>1686</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1648" s="2" t="s">
-        <v>1689</v>
+        <v>1716</v>
       </c>
       <c r="B1648" s="2" t="s">
-        <v>1690</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1649" s="2" t="s">
-        <v>1691</v>
+        <v>1717</v>
       </c>
       <c r="B1649" s="2" t="s">
-        <v>1692</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1650" s="2" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B1650" s="2" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1651" s="2" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="B1651" s="2" t="s">
-        <v>1718</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="1652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1652" s="2" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B1652" s="2" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1653" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1653" s="2" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="B1653" s="2" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1654" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1654" s="2" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="B1654" s="2" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="1655" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1655" s="2" t="s">
-        <v>1722</v>
-      </c>
-      <c r="B1655" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1655" s="2" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1656" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1656" s="2" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1657" s="2" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="1656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1656" s="2" t="s">
-        <v>1723</v>
-      </c>
-      <c r="B1656" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1657" s="2" t="s">
-        <v>1724</v>
-      </c>
-      <c r="B1657" t="s">
-        <v>1727</v>
+      <c r="B1657" s="2" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1658" s="2" t="s">
-        <v>1725</v>
-      </c>
-      <c r="B1658" t="s">
-        <v>1727</v>
+        <v>1728</v>
+      </c>
+      <c r="B1658" s="2" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1659" s="2" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B1659" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1729</v>
+      </c>
+      <c r="B1659" s="2" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1660" s="2" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="B1660" s="2" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1661" s="2" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="B1661" s="2" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1662" s="2" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="B1662" s="2" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1663" s="2" t="s">
-        <v>1731</v>
+        <v>1741</v>
       </c>
       <c r="B1663" s="2" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1664" s="2" t="s">
-        <v>1732</v>
+        <v>1745</v>
       </c>
       <c r="B1664" s="2" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1665" s="2" t="s">
-        <v>1733</v>
+        <v>1746</v>
       </c>
       <c r="B1665" s="2" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1666" s="2" t="s">
-        <v>1734</v>
+        <v>1747</v>
       </c>
       <c r="B1666" s="2" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1667" s="2" t="s">
-        <v>1735</v>
+        <v>1748</v>
       </c>
       <c r="B1667" s="2" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1668" s="2" t="s">
-        <v>1736</v>
+        <v>1752</v>
       </c>
       <c r="B1668" s="2" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1669" s="2" t="s">
-        <v>1737</v>
+        <v>1753</v>
       </c>
       <c r="B1669" s="2" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1670" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1670" s="2" t="s">
-        <v>1740</v>
+        <v>1754</v>
       </c>
       <c r="B1670" s="2" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1671" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1671" s="2" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1672" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1672" s="2" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1673" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B1673" s="2" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1674" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B1674" s="2" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1675" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B1675" s="2" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1676" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B1676" s="2" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1677" s="2" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B1677" s="2" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1678" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1678" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1678" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1679" s="2" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1679" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1679" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1680" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1680" s="2" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C1680" s="2" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1681" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1681" s="2" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1682" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1682" s="2" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1683" s="2" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1683" s="2" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1684" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1684" s="2" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1685" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1685" s="2" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1686" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1686" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1687" s="2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1687" s="2" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1688" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1688" s="2" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1689" s="2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1689" s="2" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1690" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1690" s="2" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1691" s="2" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1691" s="2" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1692" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B1692" s="2" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1693" s="2" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1693" s="2" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1694" s="2" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1694" s="2" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1695" s="2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1695" s="2" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="1671" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1671" s="2" t="s">
-        <v>1741</v>
-      </c>
-      <c r="B1671" s="2" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1672" s="2" t="s">
-        <v>1742</v>
-      </c>
-      <c r="B1672" s="2" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1673" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="B1673" s="2" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1674" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1674" s="2" t="s">
-        <v>1744</v>
-      </c>
-      <c r="B1674" s="2" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1675" s="2" t="s">
-        <v>1745</v>
-      </c>
-      <c r="B1675" s="2" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1676" s="2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="B1676" s="2" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1677" s="2" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B1677" s="2" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1678" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B1678" s="2" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1679" s="2" t="s">
-        <v>1749</v>
-      </c>
-      <c r="B1679" s="2" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1680" s="2" t="s">
-        <v>1758</v>
-      </c>
-      <c r="B1680" s="2" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1681" s="2" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B1681" s="2" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1682" s="2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B1682" s="2" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1683" s="2" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B1683" s="2" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1684" s="2" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B1684" s="2" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1685" s="2" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B1685" s="2" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1686" s="2" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B1686" s="2" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1687" s="2" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B1687" s="2" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1688" s="2" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B1688" s="2" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1689" s="2" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B1689" s="2" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1690" s="2" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B1690" s="2" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1691" s="2" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B1691" s="2" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1692" s="2" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B1692" s="2" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1693" s="2" t="s">
-        <v>1777</v>
-      </c>
-      <c r="B1693" s="2" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1694" s="2" t="s">
-        <v>1778</v>
-      </c>
-      <c r="B1694" s="2" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1695" s="2" t="s">
-        <v>1783</v>
-      </c>
-      <c r="B1695" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C1695" s="2" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1696" s="2" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="B1696" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C1696" s="2" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1697" s="2" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="B1697" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="C1697" s="2" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1698" s="2" t="s">
-        <v>1787</v>
+        <v>1794</v>
       </c>
       <c r="B1698" s="2" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1699" s="2" t="s">
-        <v>1789</v>
+        <v>1795</v>
       </c>
       <c r="B1699" s="2" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1700" s="2" t="s">
-        <v>1791</v>
+        <v>1796</v>
       </c>
       <c r="B1700" s="2" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1701" s="2" t="s">
-        <v>1792</v>
+        <v>1797</v>
       </c>
       <c r="B1701" s="2" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1702" s="2" t="s">
-        <v>1794</v>
+        <v>1798</v>
       </c>
       <c r="B1702" s="2" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1703" s="2" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="B1703" s="2" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1704" s="2" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B1704" s="2" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1705" s="2" t="s">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="B1705" s="2" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1706" s="2" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
       <c r="B1706" s="2" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1707" s="2" t="s">
-        <v>1802</v>
+        <v>1804</v>
       </c>
       <c r="B1707" s="2" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1708" s="2" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="B1708" s="2" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1709" s="2" t="s">
-        <v>1451</v>
+        <v>1807</v>
       </c>
       <c r="B1709" s="2" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1710" s="2" t="s">
-        <v>1805</v>
+        <v>1810</v>
       </c>
       <c r="B1710" s="2" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1711" s="2" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="B1711" s="2" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1712" s="2" t="s">
-        <v>1808</v>
+        <v>1814</v>
       </c>
       <c r="B1712" s="2" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1713" s="2" t="s">
-        <v>1809</v>
+        <v>1815</v>
       </c>
       <c r="B1713" s="2" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1714" s="2" t="s">
-        <v>1810</v>
+        <v>1817</v>
       </c>
       <c r="B1714" s="2" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1715" s="2" t="s">
-        <v>1811</v>
+        <v>1818</v>
       </c>
       <c r="B1715" s="2" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="1716" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1716" s="2" t="s">
-        <v>1812</v>
+        <v>1820</v>
       </c>
       <c r="B1716" s="2" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1717" s="2" t="s">
-        <v>1813</v>
+        <v>1822</v>
       </c>
       <c r="B1717" s="2" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1718" s="2" t="s">
-        <v>1814</v>
+        <v>1823</v>
       </c>
       <c r="B1718" s="2" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1719" s="2" t="s">
-        <v>1815</v>
+        <v>1825</v>
       </c>
       <c r="B1719" s="2" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1720" s="2" t="s">
-        <v>1816</v>
+        <v>1826</v>
       </c>
       <c r="B1720" s="2" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1721" s="2" t="s">
-        <v>1817</v>
+        <v>1828</v>
       </c>
       <c r="B1721" s="2" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1722" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1722" s="2" t="s">
-        <v>1818</v>
+        <v>1830</v>
       </c>
       <c r="B1722" s="2" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1723" s="2" t="s">
-        <v>1820</v>
+        <v>1831</v>
       </c>
       <c r="B1723" s="2" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1724" s="2" t="s">
-        <v>1821</v>
+        <v>1833</v>
       </c>
       <c r="B1724" s="2" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1725" s="2" t="s">
-        <v>1823</v>
+        <v>1834</v>
       </c>
       <c r="B1725" s="2" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1726" s="2" t="s">
-        <v>1824</v>
+        <v>1624</v>
       </c>
       <c r="B1726" s="2" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1659</v>
+      </c>
+      <c r="C1726" s="2"/>
+      <c r="D1726" s="2"/>
+      <c r="E1726" s="2"/>
+      <c r="G1726"/>
+      <c r="H1726"/>
+      <c r="I1726"/>
+    </row>
+    <row r="1727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1727" s="2" t="s">
-        <v>1827</v>
+        <v>1622</v>
       </c>
       <c r="B1727" s="2" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1692</v>
+      </c>
+      <c r="C1727" s="2"/>
+      <c r="D1727" s="2"/>
+      <c r="E1727" s="2"/>
+      <c r="F1727" s="2"/>
+      <c r="G1727"/>
+      <c r="H1727"/>
+      <c r="I1727"/>
+    </row>
+    <row r="1728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1728" s="2" t="s">
-        <v>1829</v>
+        <v>1627</v>
       </c>
       <c r="B1728" s="2" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="1729" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1650</v>
+      </c>
+      <c r="C1728" s="2"/>
+      <c r="D1728" s="2"/>
+      <c r="E1728" s="2"/>
+      <c r="F1728" s="2"/>
+      <c r="G1728" s="2"/>
+      <c r="H1728"/>
+      <c r="I1728"/>
+    </row>
+    <row r="1729" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1729" s="2" t="s">
-        <v>1831</v>
+        <v>1628</v>
       </c>
       <c r="B1729" s="2" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="1730" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1644</v>
+      </c>
+      <c r="C1729" s="2"/>
+      <c r="D1729" s="2"/>
+      <c r="E1729" s="2"/>
+      <c r="G1729"/>
+      <c r="H1729"/>
+      <c r="I1729"/>
+    </row>
+    <row r="1730" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1730" s="2" t="s">
-        <v>1832</v>
+        <v>1617</v>
       </c>
       <c r="B1730" s="2" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="1731" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1661</v>
+      </c>
+      <c r="C1730" s="2"/>
+      <c r="D1730" s="2"/>
+      <c r="E1730" s="2"/>
+      <c r="F1730" s="2"/>
+      <c r="G1730" s="2"/>
+      <c r="H1730"/>
+      <c r="I1730"/>
+    </row>
+    <row r="1731" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1731" s="2" t="s">
-        <v>1834</v>
+        <v>1616</v>
       </c>
       <c r="B1731" s="2" t="s">
-        <v>1834</v>
-      </c>
+        <v>1640</v>
+      </c>
+      <c r="C1731" s="2"/>
+      <c r="D1731" s="2"/>
+      <c r="E1731" s="2"/>
+      <c r="F1731" s="2"/>
+      <c r="G1731"/>
+      <c r="H1731"/>
+      <c r="I1731"/>
     </row>
     <row r="1732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1732" s="2" t="s">
-        <v>1835</v>
+        <v>1620</v>
       </c>
       <c r="B1732" s="2" t="s">
-        <v>1836</v>
-      </c>
+        <v>1668</v>
+      </c>
+      <c r="C1732" s="2"/>
+      <c r="D1732" s="2"/>
+      <c r="E1732" s="2"/>
+      <c r="F1732" s="2"/>
+      <c r="G1732"/>
+      <c r="H1732"/>
+      <c r="I1732"/>
     </row>
     <row r="1733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1733" s="2" t="s">
-        <v>1837</v>
+        <v>1618</v>
       </c>
       <c r="B1733" s="2" t="s">
-        <v>1838</v>
-      </c>
+        <v>1675</v>
+      </c>
+      <c r="C1733" s="2"/>
+      <c r="D1733" s="2"/>
+      <c r="E1733" s="2"/>
+      <c r="F1733" s="2"/>
+      <c r="G1733"/>
+      <c r="H1733"/>
+      <c r="I1733"/>
     </row>
     <row r="1734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1734" s="2" t="s">
-        <v>1839</v>
+        <v>1625</v>
       </c>
       <c r="B1734" s="2" t="s">
-        <v>1839</v>
-      </c>
+        <v>1651</v>
+      </c>
+      <c r="C1734" s="2"/>
+      <c r="D1734" s="2"/>
+      <c r="E1734" s="2"/>
+      <c r="F1734" s="2"/>
+      <c r="G1734"/>
+      <c r="H1734"/>
+      <c r="I1734"/>
     </row>
     <row r="1735" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1735" s="2" t="s">
-        <v>1840</v>
+        <v>1623</v>
       </c>
       <c r="B1735" s="2" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1657</v>
+      </c>
+      <c r="C1735" s="2"/>
+      <c r="D1735" s="2"/>
+      <c r="E1735" s="2"/>
+      <c r="F1735" s="2"/>
+      <c r="G1735"/>
+      <c r="H1735"/>
+      <c r="I1735"/>
+    </row>
+    <row r="1736" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1736" s="2" t="s">
-        <v>1842</v>
+        <v>1621</v>
       </c>
       <c r="B1736" s="2" t="s">
-        <v>1842</v>
-      </c>
+        <v>1685</v>
+      </c>
+      <c r="C1736" s="2"/>
+      <c r="D1736" s="2"/>
+      <c r="E1736" s="2"/>
+      <c r="F1736" s="2"/>
+      <c r="G1736" s="2"/>
+      <c r="H1736"/>
+      <c r="I1736"/>
     </row>
     <row r="1737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1737" s="2" t="s">
-        <v>1843</v>
+        <v>1619</v>
       </c>
       <c r="B1737" s="2" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1673</v>
+      </c>
+      <c r="C1737" s="2"/>
+      <c r="D1737" s="2"/>
+      <c r="E1737" s="2"/>
+      <c r="F1737" s="2"/>
+      <c r="G1737" s="2"/>
+      <c r="H1737"/>
+      <c r="I1737"/>
+    </row>
+    <row r="1738" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A1738" s="2" t="s">
-        <v>1845</v>
+        <v>1626</v>
       </c>
       <c r="B1738" s="2" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1739" s="2" t="s">
-        <v>1847</v>
-      </c>
-      <c r="B1739" s="2" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1740" s="2" t="s">
-        <v>1848</v>
-      </c>
-      <c r="B1740" s="2" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1741" s="2" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B1741" s="2" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1742" s="2" t="s">
-        <v>1851</v>
-      </c>
-      <c r="B1742" s="2" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1743" s="2" t="s">
-        <v>1641</v>
-      </c>
-      <c r="B1743" s="2" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C1743" s="2"/>
-      <c r="D1743" s="2"/>
-      <c r="E1743" s="2"/>
-      <c r="G1743"/>
-      <c r="H1743"/>
-      <c r="I1743"/>
-    </row>
-    <row r="1744" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1744" s="2" t="s">
-        <v>1639</v>
-      </c>
-      <c r="B1744" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C1744" s="2"/>
-      <c r="D1744" s="2"/>
-      <c r="E1744" s="2"/>
-      <c r="F1744" s="2"/>
-      <c r="G1744"/>
-      <c r="H1744"/>
-      <c r="I1744"/>
-    </row>
-    <row r="1745" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1745" s="2" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B1745" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C1745" s="2"/>
-      <c r="D1745" s="2"/>
-      <c r="E1745" s="2"/>
-      <c r="F1745" s="2"/>
-      <c r="G1745" s="2"/>
-      <c r="H1745"/>
-      <c r="I1745"/>
-    </row>
-    <row r="1746" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1746" s="2" t="s">
-        <v>1645</v>
-      </c>
-      <c r="B1746" s="2" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C1746" s="2"/>
-      <c r="D1746" s="2"/>
-      <c r="E1746" s="2"/>
-      <c r="G1746"/>
-      <c r="H1746"/>
-      <c r="I1746"/>
-    </row>
-    <row r="1747" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1747" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="B1747" s="2" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C1747" s="2"/>
-      <c r="D1747" s="2"/>
-      <c r="E1747" s="2"/>
-      <c r="F1747" s="2"/>
-      <c r="G1747" s="2"/>
-      <c r="H1747"/>
-      <c r="I1747"/>
-    </row>
-    <row r="1748" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1748" s="2" t="s">
-        <v>1633</v>
-      </c>
-      <c r="B1748" s="2" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C1748" s="2"/>
-      <c r="D1748" s="2"/>
-      <c r="E1748" s="2"/>
-      <c r="F1748" s="2"/>
-      <c r="G1748"/>
-      <c r="H1748"/>
-      <c r="I1748"/>
-    </row>
-    <row r="1749" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1749" s="2" t="s">
-        <v>1637</v>
-      </c>
-      <c r="B1749" s="2" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C1749" s="2"/>
-      <c r="D1749" s="2"/>
-      <c r="E1749" s="2"/>
-      <c r="F1749" s="2"/>
-      <c r="G1749"/>
-      <c r="H1749"/>
-      <c r="I1749"/>
-    </row>
-    <row r="1750" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1750" s="2" t="s">
-        <v>1635</v>
-      </c>
-      <c r="B1750" s="2" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C1750" s="2"/>
-      <c r="D1750" s="2"/>
-      <c r="E1750" s="2"/>
-      <c r="F1750" s="2"/>
-      <c r="G1750"/>
-      <c r="H1750"/>
-      <c r="I1750"/>
-    </row>
-    <row r="1751" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1751" s="2" t="s">
-        <v>1642</v>
-      </c>
-      <c r="B1751" s="2" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C1751" s="2"/>
-      <c r="D1751" s="2"/>
-      <c r="E1751" s="2"/>
-      <c r="F1751" s="2"/>
-      <c r="G1751"/>
-      <c r="H1751"/>
-      <c r="I1751"/>
-    </row>
-    <row r="1752" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1752" s="2" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B1752" s="2" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C1752" s="2"/>
-      <c r="D1752" s="2"/>
-      <c r="E1752" s="2"/>
-      <c r="F1752" s="2"/>
-      <c r="G1752"/>
-      <c r="H1752"/>
-      <c r="I1752"/>
-    </row>
-    <row r="1753" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1753" s="2" t="s">
-        <v>1638</v>
-      </c>
-      <c r="B1753" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C1753" s="2"/>
-      <c r="D1753" s="2"/>
-      <c r="E1753" s="2"/>
-      <c r="F1753" s="2"/>
-      <c r="G1753" s="2"/>
-      <c r="H1753"/>
-      <c r="I1753"/>
-    </row>
-    <row r="1754" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1754" s="2" t="s">
-        <v>1636</v>
-      </c>
-      <c r="B1754" s="2" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C1754" s="2"/>
-      <c r="D1754" s="2"/>
-      <c r="E1754" s="2"/>
-      <c r="F1754" s="2"/>
-      <c r="G1754" s="2"/>
-      <c r="H1754"/>
-      <c r="I1754"/>
-    </row>
-    <row r="1755" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1755" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="B1755" s="2" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C1755" s="2"/>
-      <c r="D1755" s="2"/>
-      <c r="E1755" s="2"/>
-      <c r="F1755" s="2"/>
-      <c r="G1755" s="2"/>
-      <c r="H1755"/>
-      <c r="I1755"/>
+        <v>1653</v>
+      </c>
+      <c r="C1738" s="2"/>
+      <c r="D1738" s="2"/>
+      <c r="E1738" s="2"/>
+      <c r="F1738" s="2"/>
+      <c r="G1738" s="2"/>
+      <c r="H1738"/>
+      <c r="I1738"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1755" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A1:D1738" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A1272 A1:B1271 A1273:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/LuanTaiBach.xlsx
+++ b/LuanTaiBach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA626B4-9247-4474-8938-8574B3DA7AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABE053-839F-4F1A-A256-C14E7AEF14D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="1916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="1917">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -5784,6 +5784,9 @@
   </si>
   <si>
     <t>Rất dễ kiếm tiền bằng tài năng biểu diễn, diễn viên, ca sĩ, nghệ sĩ</t>
+  </si>
+  <si>
+    <t>Chủ về có tiền của bất ngờ. Chủ về có thể hoạnh phát, nhưng e là sau khi phát sẽ hoạnh phá</t>
   </si>
 </sst>
 </file>
@@ -6120,8 +6123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:I1738"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A1425" workbookViewId="0">
+      <selection activeCell="C1436" sqref="C1436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18916,12 +18919,12 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="1594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1594" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1594" s="2" t="s">
         <v>1591</v>
       </c>
       <c r="B1594" s="2" t="s">
-        <v>1591</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1595" spans="1:2" x14ac:dyDescent="0.25">

--- a/LuanTaiBach.xlsx
+++ b/LuanTaiBach.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ABE053-839F-4F1A-A256-C14E7AEF14D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA9A283-7BCB-41A6-A6BC-320EE056AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="1917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="1922">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -5787,6 +5787,21 @@
   </si>
   <si>
     <t>Chủ về có tiền của bất ngờ. Chủ về có thể hoạnh phát, nhưng e là sau khi phát sẽ hoạnh phá</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tài Bạch so với ngũ hành Mệnh: Bình thường</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tài Bạch so với ngũ hành Mệnh: Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tài Bạch so với ngũ hành Mệnh: Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tài Bạch so với ngũ hành Mệnh: Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Tài Bạch so với ngũ hành Mệnh: Bại địa</t>
   </si>
 </sst>
 </file>
@@ -5834,7 +5849,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6121,10 +6156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:I1738"/>
+  <dimension ref="A1:I1743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1425" workbookViewId="0">
-      <selection activeCell="C1436" sqref="C1436"/>
+    <sheetView tabSelected="1" topLeftCell="A1724" workbookViewId="0">
+      <selection activeCell="C1736" sqref="C1735:C1736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20177,11 +20212,55 @@
       <c r="H1738"/>
       <c r="I1738"/>
     </row>
+    <row r="1739" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1739" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1739" s="2" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1740" s="2" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B1740" s="2" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1741" s="2" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1741" s="2" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1742" s="2" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1742" s="2" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1743" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1743" s="2" t="s">
+        <v>1921</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1738" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1272 A1:B1271 A1273:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A1272 A1:B1271 A1273:B1738 A1744:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1739:B1743">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanTaiBach.xlsx
+++ b/LuanTaiBach.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA9A283-7BCB-41A6-A6BC-320EE056AEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63F30A-7483-46E1-8170-7FF180E45388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="1929">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -5802,6 +5802,27 @@
   </si>
   <si>
     <t>Vị trí cung Tài Bạch so với ngũ hành Mệnh: Bại địa</t>
+  </si>
+  <si>
+    <t>Hóa Lộc có hàm ý là "nhiều", "cầu được nhiều". Lúc Hóa Lộc ở cung tài bạch, ảnh hưởng đầu tiên chính là bản thân rất có hứng thú kiếm tiền, trạng thái tâm lí kì vọng vào việc kiếm tiền thể hiện rõ rệt hơn người bình thường, họ sẽ suy nghĩ tính toán nhiều phương thức kiếm tiền và con đường kiếm tiền khác nhau, và cũng sẽ biến nó thành hành động thực tiễn</t>
+  </si>
+  <si>
+    <t>Lúc Hóa Lộc ở cung tài bạch là chủ về mệnh tạo có nhiều cơ hội kiếm tiền cho nên có quan điểm cho rằng có Hóa Lộc ở cung tài bạch là giàu có. Thực ra Hóa Lộc ở cung tài bạch là chủ về trong cuộc đời từng có nhiều thời cơ kiếm được rất nhiều tiền, nhưng không nhất định sẽ giàu có, vì đây chỉ là điều kiện có, mà chưa phải là điều kiện đủ. Có điều, Hóa Lộc ở cung tài bạch là chủ về nguồn tiền tài bất tận, chỉ cần có động tác kiếm tiền, luôn luôn có cơ hội tiền vào.</t>
+  </si>
+  <si>
+    <t>Luận về tiền bạc không lớn, nhưng do chịu tác động của Hóa Lộc, nên bất luận mệnh tạo tự kinh doanh, hay đi làm hưởng lương, thì kiếm tiền vẫn dễ hơn người bình thường.</t>
+  </si>
+  <si>
+    <t>Có nhiều con đường tiền vào, nhiều con đường kiếm tiền, mà con đường tiêu xài tiền cũng rất nhiều, mà còn tiêu xài tiền với tốc độ rất nhanh. Hóa Lộc chủ về "nhiều", nên có nhiều phương thức kiếm tiền, ứng nghiệm trong thực tế, là chủ về dễ có thêm nghề khác, có tố chất chuyên nghiệp, và có nhiều cách kiếm tiền.</t>
+  </si>
+  <si>
+    <t>Vì Hóa Lộc ở cung tài bạch, nên cũng có nghĩa là biểu hiện tính chất Hóa Lộc (vì cung tài bạch là cung vị chủ về biểu hiện), biểu hiện "Hóa Lộc" tức là biểu hiện có tiền của, nên dù mệnh tạo không có tiền cũng sẽ biểu hiện là người có tiền. Có lúc phải gượng chống đỡ, khiến người ta hiểu lầm mệnh tạo là người rất có tiền, thực ra chỉ là người rất biết tiêu xài tiền mà thôi!  chủ về mệnh tạo đối đãi bạn bè rất khẳng khái và rộng rãi</t>
+  </si>
+  <si>
+    <t>Vì cung tài bạch còn là cung vị biểu hiện, cho nên Hóa Lộc tượng trưng cho "có tình nghĩa", "đa tình"; biểu hiện ở hành vi, ngôn từ và thái độ đều làm cho người ta cảm thấy mệnh tạo có tình người, mà cách xử sự cũng dùng tình cảm rất tế nhị. Vì có thái độ đầy tình cảm, lúc dùng lời nói cũng tràn đầy tình cảm, khiến người ta cảm nhận được lòng chân thành của họ, kèm với cách dùng tiền thoải mái và rộng rãi, nên rất thu hút sự chú ý của người khác giới.</t>
+  </si>
+  <si>
+    <t>Cung tài bạch còn là cung vị phu thê của cung phu thê, nên là hình ảnh của mệnh tạo trong cách nhìn của người phối ngẫu; trường hợp có Hóa Lộc, nếu so sánh thì người phối ngẫu sẽ cho rằng mệnh tạo đa tình hơn họ, do đó dễ bị người phối ngẫu hiểu lầm là đa tình hào hoa. Một khi bước ra xã hội đi làm kiếm tiền, trong một khoảng thời gian, quan niệm về tình cảm của mệnh tạo sẽ thay đổi; vì tâm tính dễ xúc động cũng là tượng trưng cho sự tụ tán li hợp rất nhanh, rất gấp; người ngoài sẽ cho rằng họ là người không chuyên nhất trong tình cảm.</t>
   </si>
 </sst>
 </file>
@@ -6158,8 +6179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:I1743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1724" workbookViewId="0">
-      <selection activeCell="C1736" sqref="C1735:C1736"/>
+    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
+      <selection activeCell="I1297" sqref="I1297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6168,7 +6189,11 @@
     <col min="2" max="2" width="61.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="66" style="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="1"/>
+    <col min="5" max="5" width="41.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -12540,28 +12565,28 @@
         <v>827</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A793" s="2" t="s">
         <v>828</v>
       </c>
       <c r="B793" s="2" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A794" s="2" t="s">
         <v>829</v>
       </c>
       <c r="B794" s="2" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A795" s="2" t="s">
         <v>830</v>
       </c>
       <c r="B795" s="2" t="s">
-        <v>830</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16569,15 +16594,33 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="1297" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A1297" s="2" t="s">
         <v>1294</v>
       </c>
       <c r="B1297" s="2" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="1298" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="C1297" s="2" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D1297" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E1297" s="2" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F1297" s="2" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G1297" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H1297" s="2" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A1298" s="2" t="s">
         <v>1295</v>
       </c>
@@ -16585,7 +16628,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="1299" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A1299" s="2" t="s">
         <v>1296</v>
       </c>
@@ -16593,7 +16636,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="1300" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A1300" s="2" t="s">
         <v>1297</v>
       </c>
@@ -16601,7 +16644,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="1301" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1301" s="2" t="s">
         <v>1298</v>
       </c>
@@ -16609,7 +16652,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="1302" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1302" s="2" t="s">
         <v>1299</v>
       </c>
@@ -16617,7 +16660,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="1303" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A1303" s="2" t="s">
         <v>1300</v>
       </c>
@@ -16625,7 +16668,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="1304" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A1304" s="2" t="s">
         <v>1301</v>
       </c>
@@ -16633,7 +16676,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="1305" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A1305" s="2" t="s">
         <v>1302</v>
       </c>
@@ -16641,7 +16684,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="1306" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1306" s="2" t="s">
         <v>1303</v>
       </c>
@@ -16649,7 +16692,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="1307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1307" s="2" t="s">
         <v>1305</v>
       </c>
@@ -16660,7 +16703,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1308" s="2" t="s">
         <v>1304</v>
       </c>
@@ -16671,7 +16714,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1309" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A1309" s="2" t="s">
         <v>1306</v>
       </c>
@@ -16679,7 +16722,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="1310" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1310" s="2" t="s">
         <v>1307</v>
       </c>
@@ -16687,7 +16730,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="1311" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1311" s="2" t="s">
         <v>1308</v>
       </c>
@@ -16695,7 +16738,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="1312" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1312" s="2" t="s">
         <v>1309</v>
       </c>
@@ -20255,7 +20298,7 @@
   </sheetData>
   <autoFilter ref="A1:D1738" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
-  <conditionalFormatting sqref="A1272 A1:B1271 A1273:B1738 A1744:B1048576">
+  <conditionalFormatting sqref="A1272 A1273:B1738 A1744:B1048576 A1:B1271">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1739:B1743">

--- a/LuanTaiBach.xlsx
+++ b/LuanTaiBach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63F30A-7483-46E1-8170-7FF180E45388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7D4FFE-13B1-4D8D-9927-C3CBBE4BBF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="1937">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -5823,6 +5823,30 @@
   </si>
   <si>
     <t>Cung tài bạch còn là cung vị phu thê của cung phu thê, nên là hình ảnh của mệnh tạo trong cách nhìn của người phối ngẫu; trường hợp có Hóa Lộc, nếu so sánh thì người phối ngẫu sẽ cho rằng mệnh tạo đa tình hơn họ, do đó dễ bị người phối ngẫu hiểu lầm là đa tình hào hoa. Một khi bước ra xã hội đi làm kiếm tiền, trong một khoảng thời gian, quan niệm về tình cảm của mệnh tạo sẽ thay đổi; vì tâm tính dễ xúc động cũng là tượng trưng cho sự tụ tán li hợp rất nhanh, rất gấp; người ngoài sẽ cho rằng họ là người không chuyên nhất trong tình cảm.</t>
+  </si>
+  <si>
+    <t>Trước đã nói về trường hợp Hóa Quyền ở cung mệnh, là bản thân mệnh tạo có hình tượng uy nghiêm, không cần nói ra mà vân có uy lực; còn cung tài bạch là cung vị biểu hiện lời nói và hành vi, trường hợp có Hóa Quyền là chủ về biểu hiện của mệnh tạo khiến cho người ta cảm thấy có quyền uy và có tính tích cực, lời nói chậm rãi, sắc bén, chính xác, mà còn có sức thuyết phục. Để hoàn thành ước vọng của Hóa Lộc, Hóa Quyền sẽ chọn phương cách thực hiện; vì vậy, Hóa Quyền ở cung tài bạch thì mệnh tạo khá nghiêm túc trong công việc, và cũng tốn khá nhiều thời gian cho công việc, bản thân còn có tính thực hiện rất cao đối với các kế hoạch đà đề ra.</t>
+  </si>
+  <si>
+    <t>Trường hợp Hóa Quyền ở cung tài bạch thì người này luôn nghiêm túc. Vì cung tài bạch là cung vị khí số của cung quan lộc, cung tài bạch có Hóa Quyền thì tinh thần của mệnh tạo sẽ bị ảnh hưởng liên tục. Do tinh thần bị ảnh hưởng, nên khi làm việc mệnh tạo luôn đặt nặng vấn đề hiệu suất, cũng dễ có tâm trạng nóng lòng, dễ bị kích động. Hóa Quyền thuộc hỏa, ý tượng là hành động mau lẹ, trường hợp Hóa Quyền ở cung vị biểu hiện mệnh tạo là người nỗ lực thực hiện mộng tưởng, hành động mau lẹ, nghĩ là làm, thuộc loại người thực tế.</t>
+  </si>
+  <si>
+    <t>Hóa Quyền chủ về kĩ năng chuyên môn, thực lực; trường hợp Hóa Quyền ở cung tài bạch, là mệnh tạo có tính chuyên nghiệp, có quyền uy trong môi trường làm việc, và biểu hiện rất tốt năng lực của mình. Nhờ vậy người này được cấp trên xem trọng, có nhiều cơ hội thăng tiến hơn người bình thường. Xem xét cung tài bạch ở góc độ tiền bạc, người có Hóa Quyền ở cung tài bạch sẽ vì kiếm tiền mà rất tích cực, rất muốn kiếm tiền và cũng kiếm được tiền. Nhưng vì tác dụng của Hóa Quyền nên công việc kiếm tiền không được nhẹ nhàng, thường thường là hai phần sức thì được một phần tiền, và phải luôn nỗ lực.</t>
+  </si>
+  <si>
+    <t>Quan sát cung tài bạch ở góc độ là cung vị thiên di của cung phúc đức, tuy mệnh tạo làm việc cực khổ, kiếm tiền không được nhẹ nhàng, nhưng bản thân họ lại có cảm thấy mạnh mẽ và thỏa mãn, đó là một kiểu sống trong công việc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xem xét cung tài bạch ở góc độ tiêu xài tiền, trường hợp có Hóa Quyền, thái độ dùng tiền của người này là hay suy đi tính lại, tiêu xài tiền dè xẻn, thường có kế hoạch sử dụng tiền rất rõ ràng, tuyệt đối không lãng phí một xu. </t>
+  </si>
+  <si>
+    <t>Người có Hóa Quyền [năm sinh] ở cung tài bạch, tuy thái độ xử sự của họ rất thân thiện, nhưng duyên với người chung quanh lại không được tốt, vì họ lấy uy tín để kiến lập quan hệ, phàm chuyện gì cũng làm cho người ta có cảm giác họ quá tính toán, còn thái độ làm việc thì quá nguyên tắc.</t>
+  </si>
+  <si>
+    <t>Xem xét về thuộc tính nghề nghiệp, trường hợp Hóa Quyền ở cung tài bạch, là có tính khai sáng, chuyên nghiệp, luôn tự đốc thúc bản thân; mệnh tạo rất thích hợp công tác nghiệp vụ, mở rộng phạm vi hoạt động. Tuy Hóa Quyền có tính không ổn định, nhưng ở cung tài bạch thì lại không hay thay đổi công việc; liên quan đến vấn đề này cần phải xem xét cung vị khí số của cung tài bạch (tức cung mệnh), và cần phải xem xét tính ổn định của các sao trong cung tài bạch.</t>
+  </si>
+  <si>
+    <t>Cung tài bạch là cung vị phu thê của người phối ngẫu, còn là cung vị thiên di của cung phúc đức, trường hợp có Hóa Quyền là chủ về lúc bình thường người phối ngẫu sẽ cho rằng mệnh tạo làm việc vất vả, luôn cố gắng kiếm tiền; nhưng nếu các sao trong cung tài bạch phức tạp, thêm vào đó là hành hạn có tứ hóa phi nhập, thì người phối ngẫu sẽ dễ cho rằng mệnh tạo lắm đào hoa, mà trong lòng sinh bất mãn.</t>
   </si>
 </sst>
 </file>
@@ -6177,10 +6201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:I1743"/>
+  <dimension ref="A1:J1743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1292" workbookViewId="0">
-      <selection activeCell="I1297" sqref="I1297"/>
+    <sheetView tabSelected="1" topLeftCell="A1297" workbookViewId="0">
+      <selection activeCell="A1298" sqref="A1298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6193,7 +6217,8 @@
     <col min="6" max="6" width="27.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="38.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="9" max="9" width="29.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -16594,7 +16619,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="1297" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A1297" s="2" t="s">
         <v>1294</v>
       </c>
@@ -16620,15 +16645,39 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="1298" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="1298" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A1298" s="2" t="s">
         <v>1295</v>
       </c>
       <c r="B1298" s="2" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="1299" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="C1298" s="2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D1298" s="2" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E1298" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F1298" s="2" t="s">
+        <v>1932</v>
+      </c>
+      <c r="G1298" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H1298" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="I1298" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="J1298" s="2" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A1299" s="2" t="s">
         <v>1296</v>
       </c>
@@ -16636,7 +16685,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="1300" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A1300" s="2" t="s">
         <v>1297</v>
       </c>
@@ -16644,7 +16693,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="1301" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A1301" s="2" t="s">
         <v>1298</v>
       </c>
@@ -16652,7 +16701,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="1302" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1302" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1302" s="2" t="s">
         <v>1299</v>
       </c>
@@ -16660,7 +16709,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="1303" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="1303" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A1303" s="2" t="s">
         <v>1300</v>
       </c>
@@ -16668,7 +16717,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="1304" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A1304" s="2" t="s">
         <v>1301</v>
       </c>
@@ -16676,7 +16725,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="1305" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A1305" s="2" t="s">
         <v>1302</v>
       </c>
@@ -16684,7 +16733,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="1306" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1306" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A1306" s="2" t="s">
         <v>1303</v>
       </c>
@@ -16692,7 +16741,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="1307" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1307" s="2" t="s">
         <v>1305</v>
       </c>
@@ -16703,7 +16752,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1308" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1308" s="2" t="s">
         <v>1304</v>
       </c>
@@ -16714,7 +16763,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="1309" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1309" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A1309" s="2" t="s">
         <v>1306</v>
       </c>
@@ -16722,7 +16771,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="1310" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1310" s="2" t="s">
         <v>1307</v>
       </c>
@@ -16730,7 +16779,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="1311" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A1311" s="2" t="s">
         <v>1308</v>
       </c>
@@ -16738,7 +16787,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="1312" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A1312" s="2" t="s">
         <v>1309</v>
       </c>

--- a/LuanTaiBach.xlsx
+++ b/LuanTaiBach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7D4FFE-13B1-4D8D-9927-C3CBBE4BBF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70D2919-BB87-46C6-9497-355389D48661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3516" uniqueCount="1937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7046" uniqueCount="1945">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -5847,6 +5847,30 @@
   </si>
   <si>
     <t>Cung tài bạch là cung vị phu thê của người phối ngẫu, còn là cung vị thiên di của cung phúc đức, trường hợp có Hóa Quyền là chủ về lúc bình thường người phối ngẫu sẽ cho rằng mệnh tạo làm việc vất vả, luôn cố gắng kiếm tiền; nhưng nếu các sao trong cung tài bạch phức tạp, thêm vào đó là hành hạn có tứ hóa phi nhập, thì người phối ngẫu sẽ dễ cho rằng mệnh tạo lắm đào hoa, mà trong lòng sinh bất mãn.</t>
+  </si>
+  <si>
+    <t>Hóa Khoa có tác dụng "hợp lí hóa", "trật tự hóa"; vì vậy trường hợp cung tài bạch có Hóa Khoa là chủ về mệnh tạo rất chú ý lời nói cử chỉ của mình, và mong muốn hành vi biểu hiện của mình ở các phương diện đều tuân thủ quy củ. Vì Hóa Khoa còn tượng trưng cho văn minh, nên lúc bình thường mệnh tạo sẽ kiềm chế tâm trạng của mình, muốn biểu hiện phong độ của một người có tu dưỡng, có danh dự. Hóa Khoa còn tượng trưng cho học thức, tri thức; trường hợp Hóa Khoa ở cung tài bạch, là biểu hiện năng lực học tập, giỏi vận dụng tố chất chuyên nghiệp của mình để mưu sinh, tức có sở học tinh chuyên, và học để vận dụng, mệnh tạo có trình độ cao hơn người khác trong môi trường làm việc. Ngoại trừ có sở học tinh chuyên, Hóa Khoa còn chủ về có danh tiếng, danh vọng; cho nên trường hợp Hóa Khoa nhập cung tài bạch, có lúc dựa vào tố chất chuyên nghiệp mà tạo nên danh tiếng để kiếm tiền. Hơn nữa, vì lực tác động của Hóa Khoa có tính liên tục, từ từ; cho nên sau khi trải qua một thời gian dài nỗ lực thường thường họ gây dựng được danh tiếng.</t>
+  </si>
+  <si>
+    <t>Hóa Khoa có lực tác động "bảo vệ", vì vậy hàm nghĩa mở rộng của trường hợp Hóa Khoa ở cung tài bạch là bảo đảm "quyền làm việc" và "con đường kiếm tiền". Nói một cách khác, người có Hóa Khoa ở cung tài bạch ít khi bị thất nghiệp, hoặc ít khi rơi vào tình huống không tìm được việc làm; tức lúc mất việc họ sẽ mau chóng tìm được công việc mới. Nhưng xét ở góc độ khác, lực tác động của Hóa Khoa là tuân thủ quy củ, thậm chí hơi bảo thủ những gì của mình; vì vậy trong môi trường làm việc, mệnh tạo có tính ổn định cao độ, thiêu chủ động, nên cũng rất ít khi chủ động thay đổi cóng việc.</t>
+  </si>
+  <si>
+    <t>Một ý nghĩa khác của Hóa Khoa là trợ lực của quý nhân. Trường hợp Hóa Khoa xuất hiện ở cung tài bạch, là chủ về có quý nhân giúp đỡ trong lúc tìm việc làm, duy trì mối ràng buộc trong công việc. Một ý nghĩa khác thâm sâu hơn, quý nhân chính là bản thân mệnh tạo. Vì mệnh tạo quá tuân thù chế độ trong môi trường làm việc, khiến người ta có cảm giác họ hơi câu nệ nguyên tắc; nhưng lúc làm việc họ luôn có thái độ nghiêm túc, có tinh thần trách nhiệm, rất tận tâm với chức trách của mình, thường thường chính thái độ này mới là "quý nhân bảo đảm có việc làm".</t>
+  </si>
+  <si>
+    <t>Vì sức ảnh hưởng của Hóa Khoa, người này thấu hiếu nhân tình thế thái, tiến thoái ứng đối hợp cách, cũng không kết bè kết phái để mưu lợi riêng tư, nên trông họ giống như đơn độc. Phần lớn họ là người không bao giờ bẻ cong phép tắc, không tiêu xài tiền loạn xạ, cũng không đầu cơ, không mạo hiếm, càng không tham ô.</t>
+  </si>
+  <si>
+    <t>Hóa Khoa lúc này có thể là chú trọng bề ngoài; nhất là trường hợp có các sao Tả Phụ, Hữu Bật, Văn Xương, Văn Khúc đồng cung với sao Hóa Khoa, phần nhiều sẽ có thái độ "minh triết bào thân".</t>
+  </si>
+  <si>
+    <t>Đổi góc độ khác để xem xét, có thể nói kiến lập Hóa Khoa ở cung tài bạch, do đó người này có được cảm giác vinh dự và cảm giác thành tựu là đều nhờ cung cách làm việc của mình.</t>
+  </si>
+  <si>
+    <t>Phần nhiều mệnh tạo thích hợp với nghề văn, nghề dạy học, hoặc làm việc trong cơ cấu thuộc loại lớn, tức là công việc có tính ổn định cao.</t>
+  </si>
+  <si>
+    <t>Cung tài bạch là đại biểu cho hình ảnh mệnh tạo trong lòng của người phối ngẫu; cho nên, người cung tài bạch thấy Hóa Khoa thường thường được người phối ngẫu tín nhiệm, kính trọng.</t>
   </si>
 </sst>
 </file>
@@ -6203,8 +6227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:J1743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1297" workbookViewId="0">
-      <selection activeCell="A1298" sqref="A1298"/>
+    <sheetView tabSelected="1" topLeftCell="A1298" workbookViewId="0">
+      <selection activeCell="C1298" sqref="C1298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12398,12 +12422,12 @@
         <v>803</v>
       </c>
     </row>
-    <row r="769" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A769" s="2" t="s">
         <v>804</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>804</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="770" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16677,12 +16701,33 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="1299" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A1299" s="2" t="s">
         <v>1296</v>
       </c>
       <c r="B1299" s="2" t="s">
         <v>1869</v>
+      </c>
+      <c r="C1299" s="2" t="s">
+        <v>1937</v>
+      </c>
+      <c r="D1299" s="2" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E1299" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F1299" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="G1299" s="2" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H1299" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="I1299" s="2" t="s">
+        <v>1944</v>
       </c>
     </row>
     <row r="1300" spans="1:10" ht="105" x14ac:dyDescent="0.25">

--- a/LuanTaiBach.xlsx
+++ b/LuanTaiBach.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70D2919-BB87-46C6-9497-355389D48661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9D3BA-11A0-4CA1-8211-2EF250D1F11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7046" uniqueCount="1945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="1951">
   <si>
     <t>Lộc Mã giao trì không gặp Tuế Phá, Địa Kiếp, Thiên Không</t>
   </si>
@@ -5871,6 +5871,24 @@
   </si>
   <si>
     <t>Cung tài bạch là đại biểu cho hình ảnh mệnh tạo trong lòng của người phối ngẫu; cho nên, người cung tài bạch thấy Hóa Khoa thường thường được người phối ngẫu tín nhiệm, kính trọng.</t>
+  </si>
+  <si>
+    <t>Vì tuyến "tử điền" liên quan đến dục tình, trường hợp cung tử nữ thấy tứ hóa, đều dễ xuất hiện cơ hội ngoại tình, có điều dưới sức ảnh hưởng của Hóa Kị hay Hóa Quyền, tình huống ngoại tình thường sẽ rất ồn ào, hoặc không được vui vẻ, thậm chí thành chuyện đáng tiếc. Cung tài bạch là chủ về năng lực, thủ đoạn và phương thức kiếm tiền; trường hợp Hóa Kị ở cung tài bạch, là chủ về mệnh tạo kiếm được tiền, hay có được tài phú trong hoàn cảnh thị phi. Vì vậy, đương sự có năng lực kiếm tiền khá cao, có bản lãnh nhìn ra cơ hội kiếm tiền mà người khác không nhìn ra. Vì tính chất của công việc có liên quan đến pháp luật, thông thường mệnh tạo thích hợp làm luật sư hay những nghề nghiệp liên quan đốn pháp luật cũng có khá nhiều cơ hội kiếm tiền không theo lệ thường hoặc đâu cơ có lợi. Vì thường hay luận bàn chuyện người khác thị phi, đúng sai, nên cũng thích hợp làm nhà mệnh lí.</t>
+  </si>
+  <si>
+    <t>Vì Hóa Kị đóng ở cứa ngõ ra vào của tiền bạc, do đó mệnh tạo cũng hay gặp tình huống không được thuận lợi toại ý về tài vận, hoặc bị thất nghiệp trong một thời gian ngắn. Nhất là lúc Hóa Lộc và Hóa Kị [năm sinh] ở vị trí không thích đáng, thì các tình huống kể trên càng rõ rệt. Cũng vì Hóa Kị tượng trưng cho cái "hố sâu", nên mệnh tạo muốn tìm đủ mọi cách để kiếm tiền, bản thân luôn có cảm giác thiếu an toàn về tiền bạc, thường mong muốn có thật nhiều tiền để ổn định cuộc sống, vì vậy có tiền hay không có tiền họ cũng đều than nghèo. Hóa Kị ở cung tài bạch cũng giống như cái hố sâu không đáy chuyên hút tiền; cho nên thường thường họ đều là người thực dụng, cuộc đời cũng tiêu tốn rất nhiều thời gian trong việc kiếm tiền, họ hay lấy việc có tiền hay không có tiền đế làm tiêu chuẩn đánh giá địa vị hay thành tựu cao thấp.</t>
+  </si>
+  <si>
+    <t>Cung tài bạch là đối cung của cung phúc đức, trường hợp cung tài bạch có Hóa Kị, tuy không trực tiếp xung kích cung phúc đức, nhưng vẫn khó tránh tạo áp lực đổi với cung phúc đức; vì vậy, tuy không tạo thành vấn đề về thực chất, cũng không có ảnh hưởng đối với hôn nhân, nhưng ý thức lo xa và tằm lí nặng được mất của người này sẽ khá nặng, thường thấy vì vấn đề tiền bạc mà tâm thần không yên.</t>
+  </si>
+  <si>
+    <t>Cung tài bạch là cung vị phu thê của người phối ngẫu, là nhận định về mệnh tạo trong lòng người phối ngẫu. Trường hợp Hóa Kị ở cung tài bạch, người phối ngẫu sẽ cho rằng mệnh tạo là người đa sầu đa cảm, còn nhận định mệnh tạo không quan tâm chăm sóc, chủ nghĩa cá nhân quá nặng, trong cảm giác của người phối ngẫu, mệnh tạo là người chỉ tốt với bản thân.</t>
+  </si>
+  <si>
+    <t>Cung tài bạch là đại biểu cho cửa ngõ ra vào của tiền bạc, Hóa Kị ở cung tài bạch, là rất biết kiếm tiền, còn rất biết tiêu xài tiền, thích mua đồ xa xỉ hay là hưởng thụ, nhưng mệnh tạo thường thường chỉ tiêu xài tiền cho bản thân và người thân mà thôi. Hơn nữa, vì Hóa Kị ở đối cung của cung phúc đức, thường thường sau khi tiêu xài tiền đương sự sẽ cảm thấy xót ruột.</t>
+  </si>
+  <si>
+    <t>Cung tài bạch còn đại biểu cho hành vi biểu hiện của mệnh tạo, trường hợp Hóa Kị ở cung tài bạch, mệnh tạo sẽ có lối suy nghĩ lấy tiền, lấy lợi ích làm tiêu chuẩn cho hành vi biểu hiện của mình. Vì vậy hành vi của mệnh tạo ít nhiều cũng sẽ tạo cho người ta cảm giác họ có "mục đích trục lợi" dài lâu hay ngắn hạn.</t>
   </si>
 </sst>
 </file>
@@ -6227,8 +6245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:J1743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1298" workbookViewId="0">
-      <selection activeCell="C1298" sqref="C1298"/>
+    <sheetView tabSelected="1" topLeftCell="C1299" workbookViewId="0">
+      <selection activeCell="H1300" sqref="H1300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16730,12 +16748,30 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="1300" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="1300" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A1300" s="2" t="s">
         <v>1297</v>
       </c>
       <c r="B1300" s="2" t="s">
         <v>1870</v>
+      </c>
+      <c r="C1300" s="2" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D1300" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E1300" s="2" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F1300" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G1300" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H1300" s="2" t="s">
+        <v>1950</v>
       </c>
     </row>
     <row r="1301" spans="1:10" ht="90" x14ac:dyDescent="0.25">
